--- a/Items.xlsx
+++ b/Items.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://grupomantiqueiracombr-my.sharepoint.com/personal/andrev_mantiqueirabrasil_com_br/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{06AFBCFD-6C24-44F3-AB68-FFB4EC7D6B15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="8_{06AFBCFD-6C24-44F3-AB68-FFB4EC7D6B15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E58C596E-3E57-490E-8004-CB4430C39E7B}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{B32C59C7-C42C-44D4-8F5D-8B010102F13D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="951" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="952" uniqueCount="275">
   <si>
     <t>Item</t>
   </si>
@@ -858,6 +858,9 @@
   </si>
   <si>
     <t>OVO BRANCO EXTRA GRANEL EXPORTACAO MTQ CX COM 12 BJ DE 30 UN</t>
+  </si>
+  <si>
+    <t>Conv</t>
   </si>
 </sst>
 </file>
@@ -901,7 +904,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -985,11 +988,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1008,6 +1022,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1342,10 +1357,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FC66B54-ABAE-43C4-B99D-44CD06A1DB40}">
-  <dimension ref="A1:G237"/>
+  <dimension ref="A1:H237"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A224" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F237"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1355,11 +1370,12 @@
     <col min="3" max="3" width="3.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1375,14 +1391,17 @@
       <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>2000002</v>
       </c>
@@ -1398,14 +1417,18 @@
       <c r="E2" s="6">
         <v>360</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="12">
+        <f>E2/360</f>
+        <v>1</v>
+      </c>
+      <c r="G2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="7">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2" s="7">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>2000005</v>
       </c>
@@ -1421,14 +1444,18 @@
       <c r="E3" s="6">
         <v>240</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="12">
+        <f t="shared" ref="F3:F66" si="0">E3/360</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="G3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="5">
+      <c r="H3" s="5">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>2000006</v>
       </c>
@@ -1444,14 +1471,18 @@
       <c r="E4" s="6">
         <v>200</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="12">
+        <f t="shared" si="0"/>
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="G4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="5">
+      <c r="H4" s="5">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>2000008</v>
       </c>
@@ -1467,14 +1498,18 @@
       <c r="E5" s="6">
         <v>180</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="12">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="G5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="5">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H5" s="5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>2000009</v>
       </c>
@@ -1490,14 +1525,18 @@
       <c r="E6" s="6">
         <v>240</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="12">
+        <f t="shared" si="0"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="G6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="5">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H6" s="5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>2000010</v>
       </c>
@@ -1513,14 +1552,18 @@
       <c r="E7" s="6">
         <v>360</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="5">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H7" s="5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>2000011</v>
       </c>
@@ -1536,14 +1579,18 @@
       <c r="E8" s="6">
         <v>360</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G8" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="5">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H8" s="5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>2000012</v>
       </c>
@@ -1559,14 +1606,18 @@
       <c r="E9" s="6">
         <v>360</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G9" s="5">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H9" s="5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>2000013</v>
       </c>
@@ -1582,14 +1633,18 @@
       <c r="E10" s="6">
         <v>240</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="12">
+        <f t="shared" si="0"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="G10" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="5">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H10" s="5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>2000014</v>
       </c>
@@ -1605,14 +1660,18 @@
       <c r="E11" s="6">
         <v>360</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F11" s="12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G11" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G11" s="5">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H11" s="5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>2000015</v>
       </c>
@@ -1628,14 +1687,18 @@
       <c r="E12" s="6">
         <v>200</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="F12" s="12">
+        <f t="shared" si="0"/>
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="G12" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G12" s="5">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H12" s="5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>2000016</v>
       </c>
@@ -1651,14 +1714,18 @@
       <c r="E13" s="6">
         <v>360</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="F13" s="12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G13" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G13" s="5">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H13" s="5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>2000019</v>
       </c>
@@ -1674,12 +1741,16 @@
       <c r="E14" s="6">
         <v>200</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="F14" s="12">
+        <f t="shared" si="0"/>
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="G14" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="G14" s="5"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H14" s="5"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>2000021</v>
       </c>
@@ -1695,14 +1766,18 @@
       <c r="E15" s="6">
         <v>200</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="F15" s="12">
+        <f t="shared" si="0"/>
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="G15" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="G15" s="5">
+      <c r="H15" s="5">
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>2000022</v>
       </c>
@@ -1718,14 +1793,18 @@
       <c r="E16" s="6">
         <v>360</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="F16" s="12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G16" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="G16" s="5">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H16" s="5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>2000023</v>
       </c>
@@ -1741,14 +1820,18 @@
       <c r="E17" s="6">
         <v>180</v>
       </c>
-      <c r="F17" s="5" t="s">
+      <c r="F17" s="12">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="G17" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="G17" s="5">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H17" s="5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>2000025</v>
       </c>
@@ -1764,14 +1847,18 @@
       <c r="E18" s="6">
         <v>240</v>
       </c>
-      <c r="F18" s="5" t="s">
+      <c r="F18" s="12">
+        <f t="shared" si="0"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="G18" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="G18" s="5">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H18" s="5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>2000026</v>
       </c>
@@ -1787,14 +1874,18 @@
       <c r="E19" s="6">
         <v>360</v>
       </c>
-      <c r="F19" s="5" t="s">
+      <c r="F19" s="12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G19" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="G19" s="5">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H19" s="5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>2000027</v>
       </c>
@@ -1810,14 +1901,18 @@
       <c r="E20" s="6">
         <v>200</v>
       </c>
-      <c r="F20" s="5" t="s">
+      <c r="F20" s="12">
+        <f t="shared" si="0"/>
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="G20" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="G20" s="5">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H20" s="5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>2000028</v>
       </c>
@@ -1833,14 +1928,18 @@
       <c r="E21" s="6">
         <v>240</v>
       </c>
-      <c r="F21" s="5" t="s">
+      <c r="F21" s="12">
+        <f t="shared" si="0"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="G21" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="G21" s="5">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H21" s="5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>2000029</v>
       </c>
@@ -1856,14 +1955,18 @@
       <c r="E22" s="6">
         <v>240</v>
       </c>
-      <c r="F22" s="5" t="s">
+      <c r="F22" s="12">
+        <f t="shared" si="0"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="G22" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="G22" s="5">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H22" s="5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>2000030</v>
       </c>
@@ -1879,14 +1982,18 @@
       <c r="E23" s="6">
         <v>60</v>
       </c>
-      <c r="F23" s="5" t="s">
+      <c r="F23" s="12">
+        <f t="shared" si="0"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="G23" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="G23" s="5">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H23" s="5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>2000033</v>
       </c>
@@ -1902,14 +2009,18 @@
       <c r="E24" s="6">
         <v>240</v>
       </c>
-      <c r="F24" s="5" t="s">
+      <c r="F24" s="12">
+        <f t="shared" si="0"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="G24" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="G24" s="5">
+      <c r="H24" s="5">
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>2000034</v>
       </c>
@@ -1925,14 +2036,18 @@
       <c r="E25" s="6">
         <v>240</v>
       </c>
-      <c r="F25" s="5" t="s">
+      <c r="F25" s="12">
+        <f t="shared" si="0"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="G25" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="G25" s="5">
+      <c r="H25" s="5">
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>2000038</v>
       </c>
@@ -1948,14 +2063,18 @@
       <c r="E26" s="6">
         <v>240</v>
       </c>
-      <c r="F26" s="5" t="s">
+      <c r="F26" s="12">
+        <f t="shared" si="0"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="G26" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="G26" s="5">
+      <c r="H26" s="5">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>2000039</v>
       </c>
@@ -1971,14 +2090,18 @@
       <c r="E27" s="6">
         <v>240</v>
       </c>
-      <c r="F27" s="5" t="s">
+      <c r="F27" s="12">
+        <f t="shared" si="0"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="G27" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="G27" s="5">
+      <c r="H27" s="5">
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>2000040</v>
       </c>
@@ -1994,14 +2117,18 @@
       <c r="E28" s="6">
         <v>360</v>
       </c>
-      <c r="F28" s="5" t="s">
+      <c r="F28" s="12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G28" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="G28" s="5">
+      <c r="H28" s="5">
         <v>89</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>2000042</v>
       </c>
@@ -2017,14 +2144,18 @@
       <c r="E29" s="6">
         <v>360</v>
       </c>
-      <c r="F29" s="5" t="s">
+      <c r="F29" s="12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G29" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="G29" s="5">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H29" s="5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>2000045</v>
       </c>
@@ -2040,14 +2171,18 @@
       <c r="E30" s="6">
         <v>360</v>
       </c>
-      <c r="F30" s="5" t="s">
+      <c r="F30" s="12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G30" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="G30" s="5">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H30" s="5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>2000046</v>
       </c>
@@ -2063,14 +2198,18 @@
       <c r="E31" s="6">
         <v>240</v>
       </c>
-      <c r="F31" s="5" t="s">
+      <c r="F31" s="12">
+        <f t="shared" si="0"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="G31" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="G31" s="5">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H31" s="5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>2000050</v>
       </c>
@@ -2086,12 +2225,16 @@
       <c r="E32" s="6">
         <v>360</v>
       </c>
-      <c r="F32" s="5" t="s">
+      <c r="F32" s="12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G32" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="G32" s="5"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H32" s="5"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>2000053</v>
       </c>
@@ -2107,14 +2250,18 @@
       <c r="E33" s="6">
         <v>240</v>
       </c>
-      <c r="F33" s="5" t="s">
+      <c r="F33" s="12">
+        <f t="shared" si="0"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="G33" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="G33" s="5">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H33" s="5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>2000054</v>
       </c>
@@ -2130,14 +2277,18 @@
       <c r="E34" s="6">
         <v>180</v>
       </c>
-      <c r="F34" s="5" t="s">
+      <c r="F34" s="12">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="G34" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="G34" s="5">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H34" s="5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>2000055</v>
       </c>
@@ -2153,14 +2304,18 @@
       <c r="E35" s="6">
         <v>360</v>
       </c>
-      <c r="F35" s="5" t="s">
+      <c r="F35" s="12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G35" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="G35" s="5">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H35" s="5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>2000056</v>
       </c>
@@ -2176,14 +2331,18 @@
       <c r="E36" s="6">
         <v>240</v>
       </c>
-      <c r="F36" s="5" t="s">
+      <c r="F36" s="12">
+        <f t="shared" si="0"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="G36" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="G36" s="5">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H36" s="5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>2000057</v>
       </c>
@@ -2199,14 +2358,18 @@
       <c r="E37" s="6">
         <v>360</v>
       </c>
-      <c r="F37" s="5" t="s">
+      <c r="F37" s="12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G37" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="G37" s="5">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H37" s="5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>2000058</v>
       </c>
@@ -2222,14 +2385,18 @@
       <c r="E38" s="6">
         <v>360</v>
       </c>
-      <c r="F38" s="5" t="s">
+      <c r="F38" s="12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G38" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="G38" s="5">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H38" s="5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <v>2000059</v>
       </c>
@@ -2245,14 +2412,18 @@
       <c r="E39" s="6">
         <v>240</v>
       </c>
-      <c r="F39" s="5" t="s">
+      <c r="F39" s="12">
+        <f t="shared" si="0"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="G39" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="G39" s="5">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H39" s="5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>2000060</v>
       </c>
@@ -2268,14 +2439,18 @@
       <c r="E40" s="6">
         <v>360</v>
       </c>
-      <c r="F40" s="5" t="s">
+      <c r="F40" s="12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G40" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="G40" s="5">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H40" s="5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>2000061</v>
       </c>
@@ -2291,14 +2466,18 @@
       <c r="E41" s="6">
         <v>240</v>
       </c>
-      <c r="F41" s="5" t="s">
+      <c r="F41" s="12">
+        <f t="shared" si="0"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="G41" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="G41" s="5">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H41" s="5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <v>2000062</v>
       </c>
@@ -2314,14 +2493,18 @@
       <c r="E42" s="6">
         <v>240</v>
       </c>
-      <c r="F42" s="5" t="s">
+      <c r="F42" s="12">
+        <f t="shared" si="0"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="G42" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="G42" s="5">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H42" s="5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
         <v>2000063</v>
       </c>
@@ -2337,14 +2520,18 @@
       <c r="E43" s="6">
         <v>300</v>
       </c>
-      <c r="F43" s="5" t="s">
+      <c r="F43" s="12">
+        <f t="shared" si="0"/>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="G43" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="G43" s="5">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H43" s="5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <v>2000065</v>
       </c>
@@ -2360,14 +2547,18 @@
       <c r="E44" s="6">
         <v>360</v>
       </c>
-      <c r="F44" s="5" t="s">
+      <c r="F44" s="12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G44" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="G44" s="5">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H44" s="5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <v>2000066</v>
       </c>
@@ -2383,14 +2574,18 @@
       <c r="E45" s="6">
         <v>240</v>
       </c>
-      <c r="F45" s="5" t="s">
+      <c r="F45" s="12">
+        <f t="shared" si="0"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="G45" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="G45" s="5">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H45" s="5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
         <v>2000067</v>
       </c>
@@ -2406,14 +2601,18 @@
       <c r="E46" s="6">
         <v>360</v>
       </c>
-      <c r="F46" s="5" t="s">
+      <c r="F46" s="12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G46" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="G46" s="5">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H46" s="5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
         <v>2000068</v>
       </c>
@@ -2429,14 +2628,18 @@
       <c r="E47" s="6">
         <v>240</v>
       </c>
-      <c r="F47" s="5" t="s">
+      <c r="F47" s="12">
+        <f t="shared" si="0"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="G47" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="G47" s="5">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H47" s="5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
         <v>2000069</v>
       </c>
@@ -2452,14 +2655,18 @@
       <c r="E48" s="6">
         <v>360</v>
       </c>
-      <c r="F48" s="5" t="s">
+      <c r="F48" s="12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G48" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="G48" s="5">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H48" s="5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
         <v>2000070</v>
       </c>
@@ -2475,14 +2682,18 @@
       <c r="E49" s="6">
         <v>240</v>
       </c>
-      <c r="F49" s="5" t="s">
+      <c r="F49" s="12">
+        <f t="shared" si="0"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="G49" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="G49" s="5">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H49" s="5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
         <v>2000071</v>
       </c>
@@ -2498,14 +2709,18 @@
       <c r="E50" s="6">
         <v>240</v>
       </c>
-      <c r="F50" s="5" t="s">
+      <c r="F50" s="12">
+        <f t="shared" si="0"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="G50" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="G50" s="5">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H50" s="5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
         <v>2000073</v>
       </c>
@@ -2521,14 +2736,18 @@
       <c r="E51" s="6">
         <v>300</v>
       </c>
-      <c r="F51" s="5" t="s">
+      <c r="F51" s="12">
+        <f t="shared" si="0"/>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="G51" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="G51" s="5">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H51" s="5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
         <v>2000074</v>
       </c>
@@ -2544,14 +2763,18 @@
       <c r="E52" s="6">
         <v>240</v>
       </c>
-      <c r="F52" s="5" t="s">
+      <c r="F52" s="12">
+        <f t="shared" si="0"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="G52" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="G52" s="5">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H52" s="5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
         <v>2000081</v>
       </c>
@@ -2567,14 +2790,18 @@
       <c r="E53" s="6">
         <v>360</v>
       </c>
-      <c r="F53" s="5" t="s">
+      <c r="F53" s="12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G53" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="G53" s="5">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H53" s="5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
         <v>2000082</v>
       </c>
@@ -2590,14 +2817,18 @@
       <c r="E54" s="6">
         <v>360</v>
       </c>
-      <c r="F54" s="5" t="s">
+      <c r="F54" s="12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G54" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="G54" s="5">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H54" s="5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
         <v>2000084</v>
       </c>
@@ -2613,14 +2844,18 @@
       <c r="E55" s="6">
         <v>360</v>
       </c>
-      <c r="F55" s="5" t="s">
+      <c r="F55" s="12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G55" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="G55" s="5">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H55" s="5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
         <v>2000085</v>
       </c>
@@ -2636,14 +2871,18 @@
       <c r="E56" s="6">
         <v>240</v>
       </c>
-      <c r="F56" s="5" t="s">
+      <c r="F56" s="12">
+        <f t="shared" si="0"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="G56" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="G56" s="5">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H56" s="5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
         <v>2000086</v>
       </c>
@@ -2659,14 +2898,18 @@
       <c r="E57" s="6">
         <v>360</v>
       </c>
-      <c r="F57" s="5" t="s">
+      <c r="F57" s="12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G57" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="G57" s="5">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H57" s="5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
         <v>2000087</v>
       </c>
@@ -2682,14 +2925,18 @@
       <c r="E58" s="6">
         <v>240</v>
       </c>
-      <c r="F58" s="5" t="s">
+      <c r="F58" s="12">
+        <f t="shared" si="0"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="G58" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="G58" s="5">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H58" s="5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
         <v>2000088</v>
       </c>
@@ -2705,14 +2952,18 @@
       <c r="E59" s="6">
         <v>200</v>
       </c>
-      <c r="F59" s="5" t="s">
+      <c r="F59" s="12">
+        <f t="shared" si="0"/>
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="G59" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="G59" s="5">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H59" s="5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
         <v>2000091</v>
       </c>
@@ -2728,14 +2979,18 @@
       <c r="E60" s="6">
         <v>240</v>
       </c>
-      <c r="F60" s="5" t="s">
+      <c r="F60" s="12">
+        <f t="shared" si="0"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="G60" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="G60" s="5">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H60" s="5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="4">
         <v>2000093</v>
       </c>
@@ -2751,14 +3006,18 @@
       <c r="E61" s="6">
         <v>240</v>
       </c>
-      <c r="F61" s="5" t="s">
+      <c r="F61" s="12">
+        <f t="shared" si="0"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="G61" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="G61" s="5">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H61" s="5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="4">
         <v>2000095</v>
       </c>
@@ -2774,14 +3033,18 @@
       <c r="E62" s="6">
         <v>360</v>
       </c>
-      <c r="F62" s="5" t="s">
+      <c r="F62" s="12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G62" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="G62" s="5">
+      <c r="H62" s="5">
         <v>89</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="4">
         <v>2000096</v>
       </c>
@@ -2797,14 +3060,18 @@
       <c r="E63" s="6">
         <v>360</v>
       </c>
-      <c r="F63" s="5" t="s">
+      <c r="F63" s="12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G63" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="G63" s="5">
+      <c r="H63" s="5">
         <v>89</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="4">
         <v>2000097</v>
       </c>
@@ -2820,14 +3087,18 @@
       <c r="E64" s="6">
         <v>240</v>
       </c>
-      <c r="F64" s="5" t="s">
+      <c r="F64" s="12">
+        <f t="shared" si="0"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="G64" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="G64" s="5">
+      <c r="H64" s="5">
         <v>25</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="4">
         <v>2000098</v>
       </c>
@@ -2843,14 +3114,18 @@
       <c r="E65" s="6">
         <v>180</v>
       </c>
-      <c r="F65" s="5" t="s">
+      <c r="F65" s="12">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="G65" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="G65" s="5">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H65" s="5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="4">
         <v>2000100</v>
       </c>
@@ -2866,14 +3141,18 @@
       <c r="E66" s="6">
         <v>240</v>
       </c>
-      <c r="F66" s="5" t="s">
+      <c r="F66" s="12">
+        <f t="shared" si="0"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="G66" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="G66" s="5">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H66" s="5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="4">
         <v>2000101</v>
       </c>
@@ -2889,14 +3168,18 @@
       <c r="E67" s="6">
         <v>360</v>
       </c>
-      <c r="F67" s="5" t="s">
+      <c r="F67" s="12">
+        <f t="shared" ref="F67:F130" si="1">E67/360</f>
+        <v>1</v>
+      </c>
+      <c r="G67" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="G67" s="5">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H67" s="5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="4">
         <v>2000103</v>
       </c>
@@ -2912,14 +3195,18 @@
       <c r="E68" s="6">
         <v>360</v>
       </c>
-      <c r="F68" s="5" t="s">
+      <c r="F68" s="12">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G68" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="G68" s="5">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H68" s="5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="4">
         <v>2000104</v>
       </c>
@@ -2935,14 +3222,18 @@
       <c r="E69" s="6">
         <v>360</v>
       </c>
-      <c r="F69" s="5" t="s">
+      <c r="F69" s="12">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G69" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="G69" s="5">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H69" s="5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="4">
         <v>2000105</v>
       </c>
@@ -2958,14 +3249,18 @@
       <c r="E70" s="6">
         <v>240</v>
       </c>
-      <c r="F70" s="5" t="s">
+      <c r="F70" s="12">
+        <f t="shared" si="1"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="G70" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="G70" s="5">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H70" s="5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="4">
         <v>2000106</v>
       </c>
@@ -2981,14 +3276,18 @@
       <c r="E71" s="6">
         <v>240</v>
       </c>
-      <c r="F71" s="5" t="s">
+      <c r="F71" s="12">
+        <f t="shared" si="1"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="G71" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="G71" s="5">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H71" s="5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="4">
         <v>2000109</v>
       </c>
@@ -3004,14 +3303,18 @@
       <c r="E72" s="6">
         <v>360</v>
       </c>
-      <c r="F72" s="5" t="s">
+      <c r="F72" s="12">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G72" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="G72" s="5">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H72" s="5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="4">
         <v>2000111</v>
       </c>
@@ -3027,14 +3330,18 @@
       <c r="E73" s="6">
         <v>360</v>
       </c>
-      <c r="F73" s="5" t="s">
+      <c r="F73" s="12">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G73" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="G73" s="5">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H73" s="5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="4">
         <v>2000112</v>
       </c>
@@ -3050,12 +3357,16 @@
       <c r="E74" s="6">
         <v>360</v>
       </c>
-      <c r="F74" s="5" t="s">
+      <c r="F74" s="12">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G74" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="G74" s="5"/>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H74" s="5"/>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="4">
         <v>2000113</v>
       </c>
@@ -3071,14 +3382,18 @@
       <c r="E75" s="6">
         <v>300</v>
       </c>
-      <c r="F75" s="5" t="s">
+      <c r="F75" s="12">
+        <f t="shared" si="1"/>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="G75" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="G75" s="5">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H75" s="5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="4">
         <v>2000116</v>
       </c>
@@ -3094,14 +3409,18 @@
       <c r="E76" s="6">
         <v>360</v>
       </c>
-      <c r="F76" s="5" t="s">
+      <c r="F76" s="12">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G76" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="G76" s="5">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H76" s="5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="4">
         <v>2000117</v>
       </c>
@@ -3117,14 +3436,18 @@
       <c r="E77" s="6">
         <v>360</v>
       </c>
-      <c r="F77" s="5" t="s">
+      <c r="F77" s="12">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G77" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="G77" s="5">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H77" s="5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="4">
         <v>2000118</v>
       </c>
@@ -3140,14 +3463,18 @@
       <c r="E78" s="6">
         <v>240</v>
       </c>
-      <c r="F78" s="5" t="s">
+      <c r="F78" s="12">
+        <f t="shared" si="1"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="G78" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="G78" s="5">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H78" s="5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="4">
         <v>2000120</v>
       </c>
@@ -3163,12 +3490,16 @@
       <c r="E79" s="6">
         <v>240</v>
       </c>
-      <c r="F79" s="5" t="s">
+      <c r="F79" s="12">
+        <f t="shared" si="1"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="G79" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="G79" s="5"/>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H79" s="5"/>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="4">
         <v>2000121</v>
       </c>
@@ -3184,12 +3515,16 @@
       <c r="E80" s="6">
         <v>240</v>
       </c>
-      <c r="F80" s="5" t="s">
+      <c r="F80" s="12">
+        <f t="shared" si="1"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="G80" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="G80" s="5"/>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H80" s="5"/>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="4">
         <v>2000122</v>
       </c>
@@ -3205,12 +3540,16 @@
       <c r="E81" s="6">
         <v>12</v>
       </c>
-      <c r="F81" s="5" t="s">
+      <c r="F81" s="12">
+        <f t="shared" si="1"/>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="G81" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="G81" s="5"/>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H81" s="5"/>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="4">
         <v>2000123</v>
       </c>
@@ -3226,12 +3565,16 @@
       <c r="E82" s="6">
         <v>360</v>
       </c>
-      <c r="F82" s="5" t="s">
+      <c r="F82" s="12">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G82" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="G82" s="5"/>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H82" s="5"/>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="4">
         <v>2000124</v>
       </c>
@@ -3247,14 +3590,18 @@
       <c r="E83" s="6">
         <v>300</v>
       </c>
-      <c r="F83" s="5" t="s">
+      <c r="F83" s="12">
+        <f t="shared" si="1"/>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="G83" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="G83" s="5">
+      <c r="H83" s="5">
         <v>25</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="4">
         <v>2000125</v>
       </c>
@@ -3270,14 +3617,18 @@
       <c r="E84" s="6">
         <v>240</v>
       </c>
-      <c r="F84" s="5" t="s">
+      <c r="F84" s="12">
+        <f t="shared" si="1"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="G84" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="G84" s="5">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H84" s="5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="4">
         <v>2000156</v>
       </c>
@@ -3293,12 +3644,16 @@
       <c r="E85" s="6">
         <v>240</v>
       </c>
-      <c r="F85" s="5" t="s">
+      <c r="F85" s="12">
+        <f t="shared" si="1"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="G85" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="G85" s="5"/>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H85" s="5"/>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="4">
         <v>2000160</v>
       </c>
@@ -3314,14 +3669,18 @@
       <c r="E86" s="6">
         <v>360</v>
       </c>
-      <c r="F86" s="5" t="s">
+      <c r="F86" s="12">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G86" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="G86" s="5">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H86" s="5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="4">
         <v>2000164</v>
       </c>
@@ -3337,12 +3696,16 @@
       <c r="E87" s="6">
         <v>360</v>
       </c>
-      <c r="F87" s="5" t="s">
+      <c r="F87" s="12">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G87" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="G87" s="5"/>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H87" s="5"/>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="4">
         <v>2000165</v>
       </c>
@@ -3358,12 +3721,16 @@
       <c r="E88" s="6">
         <v>360</v>
       </c>
-      <c r="F88" s="5" t="s">
+      <c r="F88" s="12">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G88" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="G88" s="5"/>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H88" s="5"/>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="4">
         <v>2000166</v>
       </c>
@@ -3379,14 +3746,18 @@
       <c r="E89" s="6">
         <v>360</v>
       </c>
-      <c r="F89" s="5" t="s">
+      <c r="F89" s="12">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G89" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="G89" s="5">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H89" s="5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="4">
         <v>2000167</v>
       </c>
@@ -3402,14 +3773,18 @@
       <c r="E90" s="6">
         <v>360</v>
       </c>
-      <c r="F90" s="5" t="s">
+      <c r="F90" s="12">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G90" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="G90" s="5">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H90" s="5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="4">
         <v>2000169</v>
       </c>
@@ -3425,14 +3800,18 @@
       <c r="E91" s="6">
         <v>60</v>
       </c>
-      <c r="F91" s="5" t="s">
+      <c r="F91" s="12">
+        <f t="shared" si="1"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="G91" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="G91" s="5">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H91" s="5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="4">
         <v>2000171</v>
       </c>
@@ -3448,14 +3827,18 @@
       <c r="E92" s="6">
         <v>360</v>
       </c>
-      <c r="F92" s="5" t="s">
+      <c r="F92" s="12">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G92" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="G92" s="5">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H92" s="5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="4">
         <v>2000172</v>
       </c>
@@ -3471,14 +3854,18 @@
       <c r="E93" s="6">
         <v>360</v>
       </c>
-      <c r="F93" s="5" t="s">
+      <c r="F93" s="12">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G93" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="G93" s="5">
+      <c r="H93" s="5">
         <v>89</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="4">
         <v>2000179</v>
       </c>
@@ -3494,14 +3881,18 @@
       <c r="E94" s="6">
         <v>360</v>
       </c>
-      <c r="F94" s="5" t="s">
+      <c r="F94" s="12">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G94" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="G94" s="5">
+      <c r="H94" s="5">
         <v>89</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="4">
         <v>2000185</v>
       </c>
@@ -3517,14 +3908,18 @@
       <c r="E95" s="6">
         <v>360</v>
       </c>
-      <c r="F95" s="5" t="s">
+      <c r="F95" s="12">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G95" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="G95" s="5">
+      <c r="H95" s="5">
         <v>89</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="4">
         <v>2000186</v>
       </c>
@@ -3540,14 +3935,18 @@
       <c r="E96" s="6">
         <v>360</v>
       </c>
-      <c r="F96" s="5" t="s">
+      <c r="F96" s="12">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G96" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="G96" s="5">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H96" s="5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="4">
         <v>2000188</v>
       </c>
@@ -3563,14 +3962,18 @@
       <c r="E97" s="6">
         <v>240</v>
       </c>
-      <c r="F97" s="5" t="s">
+      <c r="F97" s="12">
+        <f t="shared" si="1"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="G97" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="G97" s="5">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H97" s="5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="4">
         <v>2000189</v>
       </c>
@@ -3586,14 +3989,18 @@
       <c r="E98" s="6">
         <v>240</v>
       </c>
-      <c r="F98" s="5" t="s">
+      <c r="F98" s="12">
+        <f t="shared" si="1"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="G98" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="G98" s="5">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H98" s="5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="4">
         <v>2000190</v>
       </c>
@@ -3609,14 +4016,18 @@
       <c r="E99" s="6">
         <v>240</v>
       </c>
-      <c r="F99" s="5" t="s">
+      <c r="F99" s="12">
+        <f t="shared" si="1"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="G99" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="G99" s="5">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H99" s="5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="4">
         <v>2000205</v>
       </c>
@@ -3632,12 +4043,16 @@
       <c r="E100" s="6">
         <v>0</v>
       </c>
-      <c r="F100" s="5" t="s">
+      <c r="F100" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G100" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="G100" s="5"/>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H100" s="5"/>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="4">
         <v>2000210</v>
       </c>
@@ -3653,14 +4068,18 @@
       <c r="E101" s="6">
         <v>240</v>
       </c>
-      <c r="F101" s="5" t="s">
+      <c r="F101" s="12">
+        <f t="shared" si="1"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="G101" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G101" s="5">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H101" s="5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="4">
         <v>2000211</v>
       </c>
@@ -3676,14 +4095,18 @@
       <c r="E102" s="6">
         <v>360</v>
       </c>
-      <c r="F102" s="5" t="s">
+      <c r="F102" s="12">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G102" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="G102" s="5">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H102" s="5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="4">
         <v>2000212</v>
       </c>
@@ -3699,14 +4122,18 @@
       <c r="E103" s="6">
         <v>240</v>
       </c>
-      <c r="F103" s="5" t="s">
+      <c r="F103" s="12">
+        <f t="shared" si="1"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="G103" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="G103" s="5">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H103" s="5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="4">
         <v>2000213</v>
       </c>
@@ -3722,14 +4149,18 @@
       <c r="E104" s="6">
         <v>360</v>
       </c>
-      <c r="F104" s="5" t="s">
+      <c r="F104" s="12">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G104" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="G104" s="5">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H104" s="5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="4">
         <v>2000214</v>
       </c>
@@ -3745,12 +4176,16 @@
       <c r="E105" s="6">
         <v>240</v>
       </c>
-      <c r="F105" s="5" t="s">
+      <c r="F105" s="12">
+        <f t="shared" si="1"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="G105" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="G105" s="5"/>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H105" s="5"/>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="4">
         <v>2000215</v>
       </c>
@@ -3766,12 +4201,16 @@
       <c r="E106" s="6">
         <v>240</v>
       </c>
-      <c r="F106" s="5" t="s">
+      <c r="F106" s="12">
+        <f t="shared" si="1"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="G106" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G106" s="5"/>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H106" s="5"/>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="4">
         <v>2000216</v>
       </c>
@@ -3787,12 +4226,16 @@
       <c r="E107" s="6">
         <v>240</v>
       </c>
-      <c r="F107" s="5" t="s">
+      <c r="F107" s="12">
+        <f t="shared" si="1"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="G107" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="G107" s="5"/>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H107" s="5"/>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="4">
         <v>2000217</v>
       </c>
@@ -3808,12 +4251,16 @@
       <c r="E108" s="6" t="e">
         <v>#N/A</v>
       </c>
-      <c r="F108" s="5" t="s">
+      <c r="F108" s="12" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G108" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="G108" s="5"/>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H108" s="5"/>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="4">
         <v>2000218</v>
       </c>
@@ -3829,12 +4276,16 @@
       <c r="E109" s="6">
         <v>360</v>
       </c>
-      <c r="F109" s="5" t="s">
+      <c r="F109" s="12">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G109" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="G109" s="5"/>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H109" s="5"/>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="4">
         <v>2000219</v>
       </c>
@@ -3850,12 +4301,16 @@
       <c r="E110" s="6">
         <v>240</v>
       </c>
-      <c r="F110" s="5" t="s">
+      <c r="F110" s="12">
+        <f t="shared" si="1"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="G110" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="G110" s="5"/>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H110" s="5"/>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="4">
         <v>2000223</v>
       </c>
@@ -3871,12 +4326,16 @@
       <c r="E111" s="6">
         <v>240</v>
       </c>
-      <c r="F111" s="5" t="s">
+      <c r="F111" s="12">
+        <f t="shared" si="1"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="G111" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="G111" s="5"/>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H111" s="5"/>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" s="4">
         <v>2000224</v>
       </c>
@@ -3892,12 +4351,16 @@
       <c r="E112" s="6">
         <v>240</v>
       </c>
-      <c r="F112" s="5" t="s">
+      <c r="F112" s="12">
+        <f t="shared" si="1"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="G112" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="G112" s="5"/>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H112" s="5"/>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="4">
         <v>2000226</v>
       </c>
@@ -3913,12 +4376,16 @@
       <c r="E113" s="6">
         <v>240</v>
       </c>
-      <c r="F113" s="5" t="s">
+      <c r="F113" s="12">
+        <f t="shared" si="1"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="G113" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="G113" s="5"/>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H113" s="5"/>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="4">
         <v>2000227</v>
       </c>
@@ -3934,14 +4401,18 @@
       <c r="E114" s="6">
         <v>240</v>
       </c>
-      <c r="F114" s="5" t="s">
+      <c r="F114" s="12">
+        <f t="shared" si="1"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="G114" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="G114" s="5">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H114" s="5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" s="4">
         <v>2000271</v>
       </c>
@@ -3957,12 +4428,16 @@
       <c r="E115" s="6">
         <v>240</v>
       </c>
-      <c r="F115" s="5" t="s">
+      <c r="F115" s="12">
+        <f t="shared" si="1"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="G115" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="G115" s="5"/>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H115" s="5"/>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" s="4">
         <v>2000272</v>
       </c>
@@ -3978,12 +4453,16 @@
       <c r="E116" s="6">
         <v>240</v>
       </c>
-      <c r="F116" s="5" t="s">
+      <c r="F116" s="12">
+        <f t="shared" si="1"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="G116" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="G116" s="5"/>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H116" s="5"/>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="4">
         <v>2000276</v>
       </c>
@@ -3999,12 +4478,16 @@
       <c r="E117" s="6">
         <v>240</v>
       </c>
-      <c r="F117" s="5" t="s">
+      <c r="F117" s="12">
+        <f t="shared" si="1"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="G117" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="G117" s="5"/>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H117" s="5"/>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" s="4">
         <v>2000278</v>
       </c>
@@ -4020,14 +4503,18 @@
       <c r="E118" s="6">
         <v>240</v>
       </c>
-      <c r="F118" s="5" t="s">
+      <c r="F118" s="12">
+        <f t="shared" si="1"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="G118" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="G118" s="5">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H118" s="5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" s="4">
         <v>2000279</v>
       </c>
@@ -4043,14 +4530,18 @@
       <c r="E119" s="6">
         <v>360</v>
       </c>
-      <c r="F119" s="5" t="s">
+      <c r="F119" s="12">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G119" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G119" s="5">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H119" s="5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" s="4">
         <v>2000282</v>
       </c>
@@ -4066,14 +4557,18 @@
       <c r="E120" s="6">
         <v>360</v>
       </c>
-      <c r="F120" s="5" t="s">
+      <c r="F120" s="12">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G120" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="G120" s="5">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H120" s="5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" s="4">
         <v>2000283</v>
       </c>
@@ -4089,12 +4584,16 @@
       <c r="E121" s="6">
         <v>240</v>
       </c>
-      <c r="F121" s="5" t="s">
+      <c r="F121" s="12">
+        <f t="shared" si="1"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="G121" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="G121" s="5"/>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H121" s="5"/>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" s="4">
         <v>2000285</v>
       </c>
@@ -4110,12 +4609,16 @@
       <c r="E122" s="6">
         <v>240</v>
       </c>
-      <c r="F122" s="5" t="s">
+      <c r="F122" s="12">
+        <f t="shared" si="1"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="G122" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="G122" s="5"/>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H122" s="5"/>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" s="4">
         <v>2000286</v>
       </c>
@@ -4131,12 +4634,16 @@
       <c r="E123" s="6">
         <v>360</v>
       </c>
-      <c r="F123" s="5" t="s">
+      <c r="F123" s="12">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G123" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G123" s="5"/>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H123" s="5"/>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" s="4">
         <v>2000289</v>
       </c>
@@ -4152,14 +4659,18 @@
       <c r="E124" s="6">
         <v>240</v>
       </c>
-      <c r="F124" s="5" t="s">
+      <c r="F124" s="12">
+        <f t="shared" si="1"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="G124" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G124" s="5">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H124" s="5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" s="4">
         <v>2000291</v>
       </c>
@@ -4175,12 +4686,16 @@
       <c r="E125" s="6">
         <v>240</v>
       </c>
-      <c r="F125" s="5" t="s">
+      <c r="F125" s="12">
+        <f t="shared" si="1"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="G125" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="G125" s="5"/>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H125" s="5"/>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" s="4">
         <v>2000292</v>
       </c>
@@ -4196,12 +4711,16 @@
       <c r="E126" s="6">
         <v>240</v>
       </c>
-      <c r="F126" s="5" t="s">
+      <c r="F126" s="12">
+        <f t="shared" si="1"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="G126" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="G126" s="5"/>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H126" s="5"/>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" s="4">
         <v>2000293</v>
       </c>
@@ -4217,12 +4736,16 @@
       <c r="E127" s="6">
         <v>240</v>
       </c>
-      <c r="F127" s="5" t="s">
+      <c r="F127" s="12">
+        <f t="shared" si="1"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="G127" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="G127" s="5"/>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H127" s="5"/>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" s="4">
         <v>2000296</v>
       </c>
@@ -4238,12 +4761,16 @@
       <c r="E128" s="6">
         <v>360</v>
       </c>
-      <c r="F128" s="5" t="s">
+      <c r="F128" s="12">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G128" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="G128" s="5"/>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H128" s="5"/>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" s="4">
         <v>2000300</v>
       </c>
@@ -4259,14 +4786,18 @@
       <c r="E129" s="6">
         <v>300</v>
       </c>
-      <c r="F129" s="5" t="s">
+      <c r="F129" s="12">
+        <f t="shared" si="1"/>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="G129" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="G129" s="5">
+      <c r="H129" s="5">
         <v>25</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" s="4">
         <v>2000301</v>
       </c>
@@ -4282,14 +4813,18 @@
       <c r="E130" s="6">
         <v>360</v>
       </c>
-      <c r="F130" s="5" t="s">
+      <c r="F130" s="12">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G130" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="G130" s="5">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H130" s="5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" s="4">
         <v>2000303</v>
       </c>
@@ -4305,12 +4840,16 @@
       <c r="E131" s="6">
         <v>240</v>
       </c>
-      <c r="F131" s="5" t="s">
+      <c r="F131" s="12">
+        <f t="shared" ref="F131:F194" si="2">E131/360</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="G131" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="G131" s="5"/>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H131" s="5"/>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" s="4">
         <v>2000309</v>
       </c>
@@ -4326,12 +4865,16 @@
       <c r="E132" s="6">
         <v>12</v>
       </c>
-      <c r="F132" s="5" t="s">
+      <c r="F132" s="12">
+        <f t="shared" si="2"/>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="G132" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="G132" s="5"/>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H132" s="5"/>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" s="4">
         <v>2000310</v>
       </c>
@@ -4347,12 +4890,16 @@
       <c r="E133" s="6" t="e">
         <v>#N/A</v>
       </c>
-      <c r="F133" s="5" t="s">
+      <c r="F133" s="12" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G133" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="G133" s="5"/>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H133" s="5"/>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" s="4">
         <v>2000311</v>
       </c>
@@ -4368,12 +4915,16 @@
       <c r="E134" s="6" t="e">
         <v>#N/A</v>
       </c>
-      <c r="F134" s="5" t="s">
+      <c r="F134" s="12" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G134" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="G134" s="5"/>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H134" s="5"/>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" s="4">
         <v>2000312</v>
       </c>
@@ -4389,12 +4940,16 @@
       <c r="E135" s="6" t="e">
         <v>#N/A</v>
       </c>
-      <c r="F135" s="5" t="s">
+      <c r="F135" s="12" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G135" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="G135" s="5"/>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H135" s="5"/>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" s="4">
         <v>2000304</v>
       </c>
@@ -4410,14 +4965,18 @@
       <c r="E136" s="6">
         <v>240</v>
       </c>
-      <c r="F136" s="5" t="s">
+      <c r="F136" s="12">
+        <f t="shared" si="2"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="G136" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="G136" s="5">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H136" s="5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" s="4">
         <v>2000313</v>
       </c>
@@ -4433,14 +4992,18 @@
       <c r="E137" s="6">
         <v>360</v>
       </c>
-      <c r="F137" s="5" t="s">
+      <c r="F137" s="12">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G137" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="G137" s="5">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H137" s="5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" s="4">
         <v>2000314</v>
       </c>
@@ -4456,14 +5019,18 @@
       <c r="E138" s="6" t="e">
         <v>#N/A</v>
       </c>
-      <c r="F138" s="5" t="s">
+      <c r="F138" s="12" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G138" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="G138" s="5">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H138" s="5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" s="4">
         <v>2000316</v>
       </c>
@@ -4479,12 +5046,16 @@
       <c r="E139" s="6" t="e">
         <v>#N/A</v>
       </c>
-      <c r="F139" s="5" t="s">
+      <c r="F139" s="12" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G139" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="G139" s="5"/>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H139" s="5"/>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" s="4">
         <v>2000322</v>
       </c>
@@ -4500,12 +5071,16 @@
       <c r="E140" s="6" t="e">
         <v>#N/A</v>
       </c>
-      <c r="F140" s="5" t="s">
+      <c r="F140" s="12" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G140" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="G140" s="5"/>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H140" s="5"/>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" s="4">
         <v>2000324</v>
       </c>
@@ -4521,12 +5096,16 @@
       <c r="E141" s="6">
         <v>40</v>
       </c>
-      <c r="F141" s="5" t="s">
+      <c r="F141" s="12">
+        <f t="shared" si="2"/>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="G141" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="G141" s="5"/>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H141" s="5"/>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" s="4">
         <v>2000325</v>
       </c>
@@ -4542,12 +5121,16 @@
       <c r="E142" s="6" t="e">
         <v>#N/A</v>
       </c>
-      <c r="F142" s="5" t="s">
+      <c r="F142" s="12" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G142" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="G142" s="5"/>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H142" s="5"/>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" s="4">
         <v>2000326</v>
       </c>
@@ -4563,12 +5146,16 @@
       <c r="E143" s="6">
         <v>60</v>
       </c>
-      <c r="F143" s="5" t="s">
+      <c r="F143" s="12">
+        <f t="shared" si="2"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="G143" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="G143" s="5"/>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H143" s="5"/>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" s="4">
         <v>2000327</v>
       </c>
@@ -4584,12 +5171,16 @@
       <c r="E144" s="6">
         <v>360</v>
       </c>
-      <c r="F144" s="5" t="s">
+      <c r="F144" s="12">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G144" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="G144" s="5"/>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H144" s="5"/>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" s="4">
         <v>2000329</v>
       </c>
@@ -4605,12 +5196,16 @@
       <c r="E145" s="6">
         <v>240</v>
       </c>
-      <c r="F145" s="5" t="s">
+      <c r="F145" s="12">
+        <f t="shared" si="2"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="G145" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="G145" s="5"/>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H145" s="5"/>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" s="4">
         <v>2000330</v>
       </c>
@@ -4626,12 +5221,16 @@
       <c r="E146" s="6" t="e">
         <v>#N/A</v>
       </c>
-      <c r="F146" s="5" t="s">
+      <c r="F146" s="12" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G146" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="G146" s="5"/>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H146" s="5"/>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" s="4">
         <v>2000331</v>
       </c>
@@ -4647,12 +5246,16 @@
       <c r="E147" s="6" t="e">
         <v>#N/A</v>
       </c>
-      <c r="F147" s="5" t="s">
+      <c r="F147" s="12" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G147" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="G147" s="5"/>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H147" s="5"/>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" s="4">
         <v>2000333</v>
       </c>
@@ -4668,14 +5271,18 @@
       <c r="E148" s="6">
         <v>360</v>
       </c>
-      <c r="F148" s="5" t="s">
+      <c r="F148" s="12">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G148" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="G148" s="5">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H148" s="5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" s="4">
         <v>2000334</v>
       </c>
@@ -4691,12 +5298,16 @@
       <c r="E149" s="6" t="e">
         <v>#N/A</v>
       </c>
-      <c r="F149" s="5" t="s">
+      <c r="F149" s="12" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G149" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="G149" s="5"/>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H149" s="5"/>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" s="4">
         <v>2000335</v>
       </c>
@@ -4712,14 +5323,18 @@
       <c r="E150" s="6">
         <v>360</v>
       </c>
-      <c r="F150" s="5" t="s">
+      <c r="F150" s="12">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G150" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="G150" s="5">
+      <c r="H150" s="5">
         <v>44</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" s="4">
         <v>2000336</v>
       </c>
@@ -4735,14 +5350,18 @@
       <c r="E151" s="6">
         <v>360</v>
       </c>
-      <c r="F151" s="5" t="s">
+      <c r="F151" s="12">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G151" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="G151" s="5">
+      <c r="H151" s="5">
         <v>44</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" s="4">
         <v>2000338</v>
       </c>
@@ -4758,14 +5377,18 @@
       <c r="E152" s="6">
         <v>240</v>
       </c>
-      <c r="F152" s="5" t="s">
+      <c r="F152" s="12">
+        <f t="shared" si="2"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="G152" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="G152" s="5">
+      <c r="H152" s="5">
         <v>44</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" s="4">
         <v>2000339</v>
       </c>
@@ -4781,14 +5404,18 @@
       <c r="E153" s="6">
         <v>240</v>
       </c>
-      <c r="F153" s="5" t="s">
+      <c r="F153" s="12">
+        <f t="shared" si="2"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="G153" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="G153" s="5">
+      <c r="H153" s="5">
         <v>44</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154" s="4">
         <v>2000340</v>
       </c>
@@ -4804,14 +5431,18 @@
       <c r="E154" s="6">
         <v>360</v>
       </c>
-      <c r="F154" s="5" t="s">
+      <c r="F154" s="12">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G154" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="G154" s="5">
+      <c r="H154" s="5">
         <v>44</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155" s="4">
         <v>2000341</v>
       </c>
@@ -4827,14 +5458,18 @@
       <c r="E155" s="6">
         <v>360</v>
       </c>
-      <c r="F155" s="5" t="s">
+      <c r="F155" s="12">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G155" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="G155" s="5">
+      <c r="H155" s="5">
         <v>44</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156" s="4">
         <v>2000342</v>
       </c>
@@ -4850,14 +5485,18 @@
       <c r="E156" s="6">
         <v>240</v>
       </c>
-      <c r="F156" s="5" t="s">
+      <c r="F156" s="12">
+        <f t="shared" si="2"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="G156" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G156" s="5">
+      <c r="H156" s="5">
         <v>44</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157" s="4">
         <v>2000343</v>
       </c>
@@ -4873,14 +5512,18 @@
       <c r="E157" s="6">
         <v>240</v>
       </c>
-      <c r="F157" s="5" t="s">
+      <c r="F157" s="12">
+        <f t="shared" si="2"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="G157" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="G157" s="5">
+      <c r="H157" s="5">
         <v>44</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158" s="4">
         <v>2000344</v>
       </c>
@@ -4896,14 +5539,18 @@
       <c r="E158" s="6">
         <v>360</v>
       </c>
-      <c r="F158" s="5" t="s">
+      <c r="F158" s="12">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G158" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="G158" s="5">
+      <c r="H158" s="5">
         <v>44</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159" s="4">
         <v>2000345</v>
       </c>
@@ -4919,14 +5566,18 @@
       <c r="E159" s="6">
         <v>360</v>
       </c>
-      <c r="F159" s="5" t="s">
+      <c r="F159" s="12">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G159" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="G159" s="5">
+      <c r="H159" s="5">
         <v>44</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" s="4">
         <v>2000346</v>
       </c>
@@ -4942,14 +5593,18 @@
       <c r="E160" s="6">
         <v>360</v>
       </c>
-      <c r="F160" s="5" t="s">
+      <c r="F160" s="12">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G160" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="G160" s="5">
+      <c r="H160" s="5">
         <v>44</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161" s="4">
         <v>2000347</v>
       </c>
@@ -4965,14 +5620,18 @@
       <c r="E161" s="6">
         <v>360</v>
       </c>
-      <c r="F161" s="5" t="s">
+      <c r="F161" s="12">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G161" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="G161" s="5">
+      <c r="H161" s="5">
         <v>44</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" s="4">
         <v>2000348</v>
       </c>
@@ -4988,12 +5647,16 @@
       <c r="E162" s="6" t="e">
         <v>#N/A</v>
       </c>
-      <c r="F162" s="5" t="s">
+      <c r="F162" s="12" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G162" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="G162" s="5"/>
-    </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H162" s="5"/>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" s="4">
         <v>2000350</v>
       </c>
@@ -5009,12 +5672,16 @@
       <c r="E163" s="6">
         <v>240</v>
       </c>
-      <c r="F163" s="5" t="s">
+      <c r="F163" s="12">
+        <f t="shared" si="2"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="G163" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="G163" s="5"/>
-    </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H163" s="5"/>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" s="4">
         <v>2000351</v>
       </c>
@@ -5030,12 +5697,16 @@
       <c r="E164" s="6">
         <v>360</v>
       </c>
-      <c r="F164" s="5" t="s">
+      <c r="F164" s="12">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G164" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="G164" s="5"/>
-    </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H164" s="5"/>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" s="4">
         <v>2000354</v>
       </c>
@@ -5051,12 +5722,16 @@
       <c r="E165" s="6">
         <v>240</v>
       </c>
-      <c r="F165" s="5" t="s">
+      <c r="F165" s="12">
+        <f t="shared" si="2"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="G165" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="G165" s="5"/>
-    </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H165" s="5"/>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166" s="4">
         <v>2000501</v>
       </c>
@@ -5072,12 +5747,16 @@
       <c r="E166" s="6">
         <v>1</v>
       </c>
-      <c r="F166" s="5" t="s">
+      <c r="F166" s="12">
+        <f t="shared" si="2"/>
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="G166" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="G166" s="5"/>
-    </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H166" s="5"/>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" s="4">
         <v>2000502</v>
       </c>
@@ -5093,12 +5772,16 @@
       <c r="E167" s="6">
         <v>1</v>
       </c>
-      <c r="F167" s="5" t="s">
+      <c r="F167" s="12">
+        <f t="shared" si="2"/>
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="G167" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="G167" s="5"/>
-    </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H167" s="5"/>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168" s="4">
         <v>2000503</v>
       </c>
@@ -5114,12 +5797,16 @@
       <c r="E168" s="6">
         <v>360</v>
       </c>
-      <c r="F168" s="5" t="s">
+      <c r="F168" s="12">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G168" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="G168" s="5"/>
-    </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H168" s="5"/>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169" s="4">
         <v>2000505</v>
       </c>
@@ -5135,12 +5822,16 @@
       <c r="E169" s="6" t="e">
         <v>#N/A</v>
       </c>
-      <c r="F169" s="5" t="s">
+      <c r="F169" s="12" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G169" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="G169" s="5"/>
-    </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H169" s="5"/>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170" s="4">
         <v>2000506</v>
       </c>
@@ -5156,14 +5847,18 @@
       <c r="E170" s="6">
         <v>200</v>
       </c>
-      <c r="F170" s="5" t="s">
+      <c r="F170" s="12">
+        <f t="shared" si="2"/>
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="G170" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="G170" s="5">
+      <c r="H170" s="5">
         <v>25</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171" s="4">
         <v>2000509</v>
       </c>
@@ -5179,14 +5874,18 @@
       <c r="E171" s="6">
         <v>300</v>
       </c>
-      <c r="F171" s="5" t="s">
+      <c r="F171" s="12">
+        <f t="shared" si="2"/>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="G171" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="G171" s="5">
+      <c r="H171" s="5">
         <v>25</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172" s="4">
         <v>2000510</v>
       </c>
@@ -5202,12 +5901,16 @@
       <c r="E172" s="6">
         <v>240</v>
       </c>
-      <c r="F172" s="5" t="s">
+      <c r="F172" s="12">
+        <f t="shared" si="2"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="G172" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="G172" s="5"/>
-    </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H172" s="5"/>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173" s="4">
         <v>2000511</v>
       </c>
@@ -5223,14 +5926,18 @@
       <c r="E173" s="6">
         <v>60</v>
       </c>
-      <c r="F173" s="5" t="s">
+      <c r="F173" s="12">
+        <f t="shared" si="2"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="G173" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="G173" s="5">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H173" s="5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174" s="4">
         <v>2000513</v>
       </c>
@@ -5246,14 +5953,18 @@
       <c r="E174" s="6">
         <v>360</v>
       </c>
-      <c r="F174" s="5" t="s">
+      <c r="F174" s="12">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G174" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="G174" s="5">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H174" s="5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175" s="4">
         <v>2000514</v>
       </c>
@@ -5269,14 +5980,18 @@
       <c r="E175" s="6">
         <v>360</v>
       </c>
-      <c r="F175" s="5" t="s">
+      <c r="F175" s="12">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G175" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="G175" s="5">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H175" s="5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176" s="4">
         <v>2000515</v>
       </c>
@@ -5292,14 +6007,18 @@
       <c r="E176" s="6">
         <v>240</v>
       </c>
-      <c r="F176" s="5" t="s">
+      <c r="F176" s="12">
+        <f t="shared" si="2"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="G176" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="G176" s="5">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H176" s="5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177" s="4">
         <v>2000516</v>
       </c>
@@ -5315,14 +6034,18 @@
       <c r="E177" s="6">
         <v>300</v>
       </c>
-      <c r="F177" s="5" t="s">
+      <c r="F177" s="12">
+        <f t="shared" si="2"/>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="G177" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="G177" s="5">
+      <c r="H177" s="5">
         <v>44</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178" s="4">
         <v>2000517</v>
       </c>
@@ -5338,14 +6061,18 @@
       <c r="E178" s="6">
         <v>360</v>
       </c>
-      <c r="F178" s="5" t="s">
+      <c r="F178" s="12">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G178" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="G178" s="5">
+      <c r="H178" s="5">
         <v>44</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179" s="4">
         <v>2000518</v>
       </c>
@@ -5361,14 +6088,18 @@
       <c r="E179" s="6">
         <v>60</v>
       </c>
-      <c r="F179" s="5" t="s">
+      <c r="F179" s="12">
+        <f t="shared" si="2"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="G179" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="G179" s="5">
+      <c r="H179" s="5">
         <v>44</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180" s="4">
         <v>2000519</v>
       </c>
@@ -5384,14 +6115,18 @@
       <c r="E180" s="6">
         <v>240</v>
       </c>
-      <c r="F180" s="5" t="s">
+      <c r="F180" s="12">
+        <f t="shared" si="2"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="G180" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="G180" s="5">
+      <c r="H180" s="5">
         <v>44</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181" s="4">
         <v>2000520</v>
       </c>
@@ -5407,12 +6142,16 @@
       <c r="E181" s="6">
         <v>360</v>
       </c>
-      <c r="F181" s="5" t="s">
+      <c r="F181" s="12">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G181" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="G181" s="5"/>
-    </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H181" s="5"/>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182" s="4">
         <v>2000524</v>
       </c>
@@ -5428,12 +6167,16 @@
       <c r="E182" s="6" t="e">
         <v>#N/A</v>
       </c>
-      <c r="F182" s="5" t="s">
+      <c r="F182" s="12" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G182" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="G182" s="5"/>
-    </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H182" s="5"/>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183" s="4">
         <v>2000525</v>
       </c>
@@ -5449,12 +6192,16 @@
       <c r="E183" s="6" t="e">
         <v>#N/A</v>
       </c>
-      <c r="F183" s="5" t="s">
+      <c r="F183" s="12" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G183" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="G183" s="5"/>
-    </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H183" s="5"/>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184" s="4">
         <v>2000527</v>
       </c>
@@ -5470,12 +6217,16 @@
       <c r="E184" s="6" t="e">
         <v>#N/A</v>
       </c>
-      <c r="F184" s="5" t="s">
+      <c r="F184" s="12" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G184" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="G184" s="5"/>
-    </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H184" s="5"/>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A185" s="4">
         <v>2000531</v>
       </c>
@@ -5491,12 +6242,16 @@
       <c r="E185" s="6" t="e">
         <v>#N/A</v>
       </c>
-      <c r="F185" s="5" t="s">
+      <c r="F185" s="12" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G185" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="G185" s="5"/>
-    </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H185" s="5"/>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186" s="4">
         <v>2000532</v>
       </c>
@@ -5512,12 +6267,16 @@
       <c r="E186" s="6">
         <v>360</v>
       </c>
-      <c r="F186" s="5" t="s">
+      <c r="F186" s="12">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G186" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="G186" s="5"/>
-    </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H186" s="5"/>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187" s="4">
         <v>2000537</v>
       </c>
@@ -5533,12 +6292,16 @@
       <c r="E187" s="6" t="e">
         <v>#N/A</v>
       </c>
-      <c r="F187" s="5" t="s">
+      <c r="F187" s="12" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G187" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="G187" s="5"/>
-    </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H187" s="5"/>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188" s="4">
         <v>2000538</v>
       </c>
@@ -5554,14 +6317,18 @@
       <c r="E188" s="6">
         <v>240</v>
       </c>
-      <c r="F188" s="5" t="s">
+      <c r="F188" s="12">
+        <f t="shared" si="2"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="G188" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="G188" s="5">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H188" s="5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189" s="4">
         <v>2000544</v>
       </c>
@@ -5577,14 +6344,18 @@
       <c r="E189" s="6">
         <v>240</v>
       </c>
-      <c r="F189" s="5" t="s">
+      <c r="F189" s="12">
+        <f t="shared" si="2"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="G189" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="G189" s="5">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H189" s="5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A190" s="4">
         <v>2000545</v>
       </c>
@@ -5600,12 +6371,16 @@
       <c r="E190" s="6" t="e">
         <v>#N/A</v>
       </c>
-      <c r="F190" s="5" t="s">
+      <c r="F190" s="12" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G190" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="G190" s="5"/>
-    </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H190" s="5"/>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A191" s="4">
         <v>2000546</v>
       </c>
@@ -5621,12 +6396,16 @@
       <c r="E191" s="6" t="e">
         <v>#N/A</v>
       </c>
-      <c r="F191" s="5" t="s">
+      <c r="F191" s="12" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G191" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="G191" s="5"/>
-    </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H191" s="5"/>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A192" s="4">
         <v>2000547</v>
       </c>
@@ -5642,12 +6421,16 @@
       <c r="E192" s="6" t="e">
         <v>#N/A</v>
       </c>
-      <c r="F192" s="5" t="s">
+      <c r="F192" s="12" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G192" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="G192" s="5"/>
-    </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H192" s="5"/>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A193" s="4">
         <v>2000548</v>
       </c>
@@ -5663,12 +6446,16 @@
       <c r="E193" s="6" t="e">
         <v>#N/A</v>
       </c>
-      <c r="F193" s="5" t="s">
+      <c r="F193" s="12" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G193" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="G193" s="5"/>
-    </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H193" s="5"/>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A194" s="4">
         <v>2000549</v>
       </c>
@@ -5684,12 +6471,16 @@
       <c r="E194" s="6" t="e">
         <v>#N/A</v>
       </c>
-      <c r="F194" s="5" t="s">
+      <c r="F194" s="12" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G194" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="G194" s="5"/>
-    </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H194" s="5"/>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A195" s="4">
         <v>2000551</v>
       </c>
@@ -5705,12 +6496,16 @@
       <c r="E195" s="6" t="e">
         <v>#N/A</v>
       </c>
-      <c r="F195" s="5" t="s">
+      <c r="F195" s="12" t="e">
+        <f t="shared" ref="F195:F237" si="3">E195/360</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G195" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="G195" s="5"/>
-    </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H195" s="5"/>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A196" s="4">
         <v>2000552</v>
       </c>
@@ -5726,12 +6521,16 @@
       <c r="E196" s="6" t="e">
         <v>#N/A</v>
       </c>
-      <c r="F196" s="5" t="s">
+      <c r="F196" s="12" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G196" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="G196" s="5"/>
-    </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H196" s="5"/>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A197" s="4">
         <v>2000554</v>
       </c>
@@ -5747,14 +6546,18 @@
       <c r="E197" s="6">
         <v>360</v>
       </c>
-      <c r="F197" s="5" t="s">
+      <c r="F197" s="12">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="G197" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="G197" s="5">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H197" s="5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A198" s="4">
         <v>2000558</v>
       </c>
@@ -5770,12 +6573,16 @@
       <c r="E198" s="6">
         <v>360</v>
       </c>
-      <c r="F198" s="5" t="s">
+      <c r="F198" s="12">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="G198" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G198" s="5"/>
-    </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H198" s="5"/>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A199" s="4">
         <v>2000561</v>
       </c>
@@ -5791,12 +6598,16 @@
       <c r="E199" s="6">
         <v>360</v>
       </c>
-      <c r="F199" s="5" t="s">
+      <c r="F199" s="12">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="G199" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="G199" s="5"/>
-    </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H199" s="5"/>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A200" s="4">
         <v>2000562</v>
       </c>
@@ -5812,12 +6623,16 @@
       <c r="E200" s="6" t="e">
         <v>#N/A</v>
       </c>
-      <c r="F200" s="5" t="s">
+      <c r="F200" s="12" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G200" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="G200" s="5"/>
-    </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H200" s="5"/>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A201" s="4">
         <v>2000566</v>
       </c>
@@ -5833,12 +6648,16 @@
       <c r="E201" s="6">
         <v>12</v>
       </c>
-      <c r="F201" s="5" t="s">
+      <c r="F201" s="12">
+        <f t="shared" si="3"/>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="G201" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="G201" s="5"/>
-    </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H201" s="5"/>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A202" s="4">
         <v>2000568</v>
       </c>
@@ -5854,12 +6673,16 @@
       <c r="E202" s="6" t="e">
         <v>#N/A</v>
       </c>
-      <c r="F202" s="5" t="s">
+      <c r="F202" s="12" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G202" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="G202" s="5"/>
-    </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H202" s="5"/>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A203" s="4">
         <v>2000569</v>
       </c>
@@ -5875,12 +6698,16 @@
       <c r="E203" s="6">
         <v>360</v>
       </c>
-      <c r="F203" s="5" t="s">
+      <c r="F203" s="12">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="G203" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="G203" s="5"/>
-    </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H203" s="5"/>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A204" s="4">
         <v>2000570</v>
       </c>
@@ -5896,14 +6723,18 @@
       <c r="E204" s="6">
         <v>360</v>
       </c>
-      <c r="F204" s="5" t="s">
+      <c r="F204" s="12">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="G204" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="G204" s="5">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H204" s="5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A205" s="4">
         <v>2000571</v>
       </c>
@@ -5919,12 +6750,16 @@
       <c r="E205" s="6" t="e">
         <v>#N/A</v>
       </c>
-      <c r="F205" s="5" t="s">
+      <c r="F205" s="12" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G205" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="G205" s="5"/>
-    </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H205" s="5"/>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A206" s="4">
         <v>2000573</v>
       </c>
@@ -5940,14 +6775,18 @@
       <c r="E206" s="6">
         <v>360</v>
       </c>
-      <c r="F206" s="5" t="s">
+      <c r="F206" s="12">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="G206" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="G206" s="5">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H206" s="5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A207" s="4">
         <v>2000593</v>
       </c>
@@ -5963,14 +6802,18 @@
       <c r="E207" s="6">
         <v>240</v>
       </c>
-      <c r="F207" s="5" t="s">
+      <c r="F207" s="12">
+        <f t="shared" si="3"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="G207" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G207" s="5">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H207" s="5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A208" s="4">
         <v>2000602</v>
       </c>
@@ -5986,14 +6829,18 @@
       <c r="E208" s="6">
         <v>240</v>
       </c>
-      <c r="F208" s="5" t="s">
+      <c r="F208" s="12">
+        <f t="shared" si="3"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="G208" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G208" s="5">
+      <c r="H208" s="5">
         <v>44</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A209" s="4">
         <v>2000603</v>
       </c>
@@ -6009,14 +6856,18 @@
       <c r="E209" s="6">
         <v>360</v>
       </c>
-      <c r="F209" s="5" t="s">
+      <c r="F209" s="12">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="G209" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="G209" s="5">
+      <c r="H209" s="5">
         <v>44</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A210" s="4">
         <v>2000604</v>
       </c>
@@ -6032,14 +6883,18 @@
       <c r="E210" s="6">
         <v>240</v>
       </c>
-      <c r="F210" s="5" t="s">
+      <c r="F210" s="12">
+        <f t="shared" si="3"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="G210" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="G210" s="5">
+      <c r="H210" s="5">
         <v>44</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A211" s="4">
         <v>2000606</v>
       </c>
@@ -6055,14 +6910,18 @@
       <c r="E211" s="6">
         <v>360</v>
       </c>
-      <c r="F211" s="5" t="s">
+      <c r="F211" s="12">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="G211" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G211" s="5">
+      <c r="H211" s="5">
         <v>89</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A212" s="4">
         <v>2000607</v>
       </c>
@@ -6078,14 +6937,18 @@
       <c r="E212" s="6">
         <v>360</v>
       </c>
-      <c r="F212" s="5" t="s">
+      <c r="F212" s="12">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="G212" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="G212" s="5">
+      <c r="H212" s="5">
         <v>44</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A213" s="4">
         <v>2000608</v>
       </c>
@@ -6101,14 +6964,18 @@
       <c r="E213" s="6">
         <v>240</v>
       </c>
-      <c r="F213" s="5" t="s">
+      <c r="F213" s="12">
+        <f t="shared" si="3"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="G213" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="G213" s="5">
+      <c r="H213" s="5">
         <v>44</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A214" s="4">
         <v>2000609</v>
       </c>
@@ -6124,14 +6991,18 @@
       <c r="E214" s="6">
         <v>240</v>
       </c>
-      <c r="F214" s="5" t="s">
+      <c r="F214" s="12">
+        <f t="shared" si="3"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="G214" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="G214" s="5">
+      <c r="H214" s="5">
         <v>44</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A215" s="4">
         <v>2100001</v>
       </c>
@@ -6147,12 +7018,16 @@
       <c r="E215" s="6" t="e">
         <v>#N/A</v>
       </c>
-      <c r="F215" s="5" t="s">
+      <c r="F215" s="12" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G215" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="G215" s="5"/>
-    </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H215" s="5"/>
+    </row>
+    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A216" s="9">
         <v>2100002</v>
       </c>
@@ -6168,12 +7043,16 @@
       <c r="E216" s="6" t="e">
         <v>#N/A</v>
       </c>
-      <c r="F216" s="10" t="s">
+      <c r="F216" s="12" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G216" s="10" t="s">
         <v>254</v>
       </c>
-      <c r="G216" s="5"/>
-    </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H216" s="5"/>
+    </row>
+    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A217" s="9">
         <v>2000585</v>
       </c>
@@ -6189,14 +7068,18 @@
       <c r="E217" s="11">
         <v>240</v>
       </c>
-      <c r="F217" s="10" t="s">
+      <c r="F217" s="12">
+        <f t="shared" si="3"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="G217" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="G217" s="10">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H217" s="10">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A218" s="4">
         <v>2000612</v>
       </c>
@@ -6212,14 +7095,18 @@
       <c r="E218" s="6">
         <v>360</v>
       </c>
-      <c r="F218" s="5" t="s">
+      <c r="F218" s="12">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="G218" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="G218" s="5">
+      <c r="H218" s="5">
         <v>44</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A219" s="9">
         <v>2000613</v>
       </c>
@@ -6235,14 +7122,18 @@
       <c r="E219" s="11">
         <v>360</v>
       </c>
-      <c r="F219" s="10" t="s">
+      <c r="F219" s="12">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="G219" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="G219" s="5">
+      <c r="H219" s="5">
         <v>44</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A220" s="9">
         <v>2000627</v>
       </c>
@@ -6258,14 +7149,18 @@
       <c r="E220" s="11">
         <v>360</v>
       </c>
-      <c r="F220" s="10" t="s">
+      <c r="F220" s="12">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="G220" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="G220" s="10">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H220" s="10">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A221" s="9">
         <v>2000628</v>
       </c>
@@ -6281,14 +7176,18 @@
       <c r="E221" s="11">
         <v>200</v>
       </c>
-      <c r="F221" s="10" t="s">
+      <c r="F221" s="12">
+        <f t="shared" si="3"/>
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="G221" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="G221" s="10">
+      <c r="H221" s="10">
         <v>25</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A222" s="4">
         <v>2000624</v>
       </c>
@@ -6304,14 +7203,18 @@
       <c r="E222" s="11">
         <v>300</v>
       </c>
-      <c r="F222" s="10" t="s">
+      <c r="F222" s="12">
+        <f t="shared" si="3"/>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="G222" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="G222" s="5">
+      <c r="H222" s="5">
         <v>44</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A223" s="9">
         <v>2000625</v>
       </c>
@@ -6327,14 +7230,18 @@
       <c r="E223" s="11">
         <v>200</v>
       </c>
-      <c r="F223" s="10" t="s">
+      <c r="F223" s="12">
+        <f t="shared" si="3"/>
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="G223" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="G223" s="5">
+      <c r="H223" s="5">
         <v>44</v>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A224" s="9">
         <v>2000634</v>
       </c>
@@ -6350,14 +7257,18 @@
       <c r="E224" s="11">
         <v>360</v>
       </c>
-      <c r="F224" s="10" t="s">
+      <c r="F224" s="12">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="G224" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="G224" s="10">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H224" s="10">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A225" s="9">
         <v>2000640</v>
       </c>
@@ -6373,14 +7284,18 @@
       <c r="E225" s="11">
         <v>360</v>
       </c>
-      <c r="F225" s="10" t="s">
+      <c r="F225" s="12">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="G225" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="G225" s="5">
+      <c r="H225" s="5">
         <v>44</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A226" s="9">
         <v>2000201</v>
       </c>
@@ -6396,14 +7311,18 @@
       <c r="E226" s="11">
         <v>360</v>
       </c>
-      <c r="F226" s="10" t="s">
+      <c r="F226" s="12">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="G226" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G226" s="10">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H226" s="10">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A227" s="9">
         <v>2000643</v>
       </c>
@@ -6419,14 +7338,18 @@
       <c r="E227" s="11">
         <v>300</v>
       </c>
-      <c r="F227" s="10" t="s">
+      <c r="F227" s="12">
+        <f t="shared" si="3"/>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="G227" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="G227" s="10">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H227" s="10">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A228" s="9">
         <v>2000647</v>
       </c>
@@ -6442,14 +7365,18 @@
       <c r="E228" s="11">
         <v>240</v>
       </c>
-      <c r="F228" s="10" t="s">
+      <c r="F228" s="12">
+        <f t="shared" si="3"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="G228" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="G228" s="5">
+      <c r="H228" s="5">
         <v>44</v>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A229" s="9">
         <v>2000299</v>
       </c>
@@ -6465,14 +7392,18 @@
       <c r="E229" s="11">
         <v>360</v>
       </c>
-      <c r="F229" s="10" t="s">
+      <c r="F229" s="12">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="G229" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="G229" s="10">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H229" s="10">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A230" s="9">
         <v>2000146</v>
       </c>
@@ -6488,14 +7419,18 @@
       <c r="E230" s="11">
         <v>360</v>
       </c>
-      <c r="F230" s="10" t="s">
+      <c r="F230" s="12">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="G230" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="G230" s="10">
+      <c r="H230" s="10">
         <v>179</v>
       </c>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A231" s="9">
         <v>2000774</v>
       </c>
@@ -6511,14 +7446,18 @@
       <c r="E231" s="11">
         <v>360</v>
       </c>
-      <c r="F231" s="10" t="s">
+      <c r="F231" s="12">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="G231" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="G231" s="10">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H231" s="10">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A232" s="4">
         <v>2000811</v>
       </c>
@@ -6534,14 +7473,18 @@
       <c r="E232" s="6">
         <v>240</v>
       </c>
-      <c r="F232" s="5" t="s">
+      <c r="F232" s="12">
+        <f t="shared" si="3"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="G232" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G232" s="5">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H232" s="5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A233" s="9">
         <v>2000813</v>
       </c>
@@ -6557,14 +7500,18 @@
       <c r="E233" s="11">
         <v>360</v>
       </c>
-      <c r="F233" s="5" t="s">
+      <c r="F233" s="12">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="G233" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G233" s="10">
+      <c r="H233" s="10">
         <v>109</v>
       </c>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A234" s="9">
         <v>2000814</v>
       </c>
@@ -6580,14 +7527,18 @@
       <c r="E234" s="11">
         <v>360</v>
       </c>
-      <c r="F234" s="10" t="s">
+      <c r="F234" s="12">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="G234" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="G234" s="10">
+      <c r="H234" s="10">
         <v>109</v>
       </c>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A235" s="9">
         <v>2000812</v>
       </c>
@@ -6603,14 +7554,18 @@
       <c r="E235" s="11">
         <v>360</v>
       </c>
-      <c r="F235" s="10" t="s">
+      <c r="F235" s="12">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="G235" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="G235" s="10">
+      <c r="H235" s="10">
         <v>109</v>
       </c>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A236" s="4">
         <v>2000816</v>
       </c>
@@ -6626,14 +7581,18 @@
       <c r="E236" s="11">
         <v>360</v>
       </c>
-      <c r="F236" s="10" t="s">
+      <c r="F236" s="12">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="G236" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G236" s="10">
+      <c r="H236" s="10">
         <v>109</v>
       </c>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A237" s="4">
         <v>2000152</v>
       </c>
@@ -6649,10 +7608,14 @@
       <c r="E237" s="6">
         <v>360</v>
       </c>
-      <c r="F237" s="5" t="s">
+      <c r="F237" s="12">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="G237" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G237" s="5">
+      <c r="H237" s="5">
         <v>179</v>
       </c>
     </row>
@@ -6663,6 +7626,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="17b9212a-12f8-4529-9f8d-10a9bb8defb4" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101003FBF49400AB40B439BDB4D3AA29F1550" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d639d79f167c3c5b1f0f36efd9e61717">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="17b9212a-12f8-4529-9f8d-10a9bb8defb4" xmlns:ns4="619f39a1-d152-43c5-a4dc-716551202ffa" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2791854f308068c708bec9277e7220b6" ns3:_="" ns4:_="">
     <xsd:import namespace="17b9212a-12f8-4529-9f8d-10a9bb8defb4"/>
@@ -6895,24 +7875,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{51A6E5DD-4266-47A2-9543-6E8E9CDC515D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="17b9212a-12f8-4529-9f8d-10a9bb8defb4"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="619f39a1-d152-43c5-a4dc-716551202ffa"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="17b9212a-12f8-4529-9f8d-10a9bb8defb4" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E6EEF2A6-A3B5-4A81-B246-81C5F8D2A42D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5160A96E-B6D7-4E9C-9D31-580ADB9F7344}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6929,29 +7917,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E6EEF2A6-A3B5-4A81-B246-81C5F8D2A42D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{51A6E5DD-4266-47A2-9543-6E8E9CDC515D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="17b9212a-12f8-4529-9f8d-10a9bb8defb4"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="619f39a1-d152-43c5-a4dc-716551202ffa"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Items.xlsx
+++ b/Items.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://grupomantiqueiracombr-my.sharepoint.com/personal/andrev_mantiqueirabrasil_com_br/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="8_{06AFBCFD-6C24-44F3-AB68-FFB4EC7D6B15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E58C596E-3E57-490E-8004-CB4430C39E7B}"/>
+  <xr:revisionPtr revIDLastSave="43" documentId="8_{06AFBCFD-6C24-44F3-AB68-FFB4EC7D6B15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FB50DC6D-A44D-4802-8E97-C1C763BBDC63}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{B32C59C7-C42C-44D4-8F5D-8B010102F13D}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$I$237</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="952" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1186" uniqueCount="301">
   <si>
     <t>Item</t>
   </si>
@@ -861,13 +864,91 @@
   </si>
   <si>
     <t>Conv</t>
+  </si>
+  <si>
+    <t>INDUSTRIA</t>
+  </si>
+  <si>
+    <t>EMBALADO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EXTRA GRANEL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">EX VER GRANEL </t>
+  </si>
+  <si>
+    <t>CINTA GR</t>
+  </si>
+  <si>
+    <t>EXPORTAÇÃO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GR GRANEL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GR GRANEL VERM </t>
+  </si>
+  <si>
+    <t>Granel</t>
+  </si>
+  <si>
+    <t>JB 30</t>
+  </si>
+  <si>
+    <t>JB 20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BALDE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MD GRANEL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MD GRANEL VER </t>
+  </si>
+  <si>
+    <t xml:space="preserve">P GRANEL </t>
+  </si>
+  <si>
+    <t>P GRANEL VER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JB 2 GEMA </t>
+  </si>
+  <si>
+    <t>CINTA MD</t>
+  </si>
+  <si>
+    <t>LÍQUIDO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KIT </t>
+  </si>
+  <si>
+    <t>KIT</t>
+  </si>
+  <si>
+    <t>SITIO VER</t>
+  </si>
+  <si>
+    <t>OVO EM PÓ</t>
+  </si>
+  <si>
+    <t>LIQUIDO</t>
+  </si>
+  <si>
+    <t>Industria</t>
+  </si>
+  <si>
+    <t>Tipo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -889,6 +970,11 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -904,7 +990,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -999,11 +1085,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1023,9 +1121,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 19" xfId="1" xr:uid="{80071771-0E76-4E30-BB3E-231AD3738F34}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1357,10 +1457,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FC66B54-ABAE-43C4-B99D-44CD06A1DB40}">
-  <dimension ref="A1:H237"/>
+  <dimension ref="A1:I237"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A224" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F237"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I179" sqref="I179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1373,9 +1473,10 @@
     <col min="6" max="6" width="10" customWidth="1"/>
     <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1400,8 +1501,11 @@
       <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I1" s="13" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>2000002</v>
       </c>
@@ -1427,8 +1531,11 @@
       <c r="H2" s="7">
         <v>29</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I2" s="5" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>2000005</v>
       </c>
@@ -1454,8 +1561,11 @@
       <c r="H3" s="5">
         <v>25</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I3" s="5" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>2000006</v>
       </c>
@@ -1481,8 +1591,11 @@
       <c r="H4" s="5">
         <v>25</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I4" s="5" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>2000008</v>
       </c>
@@ -1508,8 +1621,11 @@
       <c r="H5" s="5">
         <v>29</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I5" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>2000009</v>
       </c>
@@ -1535,8 +1651,11 @@
       <c r="H6" s="5">
         <v>29</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I6" s="5" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>2000010</v>
       </c>
@@ -1562,8 +1681,11 @@
       <c r="H7" s="5">
         <v>29</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I7" s="5" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>2000011</v>
       </c>
@@ -1589,8 +1711,11 @@
       <c r="H8" s="5">
         <v>29</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I8" s="5" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>2000012</v>
       </c>
@@ -1616,8 +1741,11 @@
       <c r="H9" s="5">
         <v>29</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I9" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>2000013</v>
       </c>
@@ -1643,8 +1771,11 @@
       <c r="H10" s="5">
         <v>29</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I10" s="5" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>2000014</v>
       </c>
@@ -1670,8 +1801,11 @@
       <c r="H11" s="5">
         <v>29</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I11" s="5" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>2000015</v>
       </c>
@@ -1697,8 +1831,11 @@
       <c r="H12" s="5">
         <v>29</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I12" s="5" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>2000016</v>
       </c>
@@ -1724,8 +1861,11 @@
       <c r="H13" s="5">
         <v>29</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I13" s="5" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>2000019</v>
       </c>
@@ -1749,8 +1889,11 @@
         <v>28</v>
       </c>
       <c r="H14" s="5"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I14" s="5" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>2000021</v>
       </c>
@@ -1776,8 +1919,11 @@
       <c r="H15" s="5">
         <v>25</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I15" s="5" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>2000022</v>
       </c>
@@ -1803,8 +1949,11 @@
       <c r="H16" s="5">
         <v>29</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I16" s="5" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>2000023</v>
       </c>
@@ -1830,8 +1979,11 @@
       <c r="H17" s="5">
         <v>29</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I17" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>2000025</v>
       </c>
@@ -1857,8 +2009,11 @@
       <c r="H18" s="5">
         <v>29</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I18" s="5" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>2000026</v>
       </c>
@@ -1884,8 +2039,11 @@
       <c r="H19" s="5">
         <v>29</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I19" s="5" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>2000027</v>
       </c>
@@ -1911,8 +2069,11 @@
       <c r="H20" s="5">
         <v>29</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I20" s="5" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>2000028</v>
       </c>
@@ -1938,8 +2099,11 @@
       <c r="H21" s="5">
         <v>29</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I21" s="5" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>2000029</v>
       </c>
@@ -1965,8 +2129,11 @@
       <c r="H22" s="5">
         <v>29</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I22" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>2000030</v>
       </c>
@@ -1992,8 +2159,11 @@
       <c r="H23" s="5">
         <v>29</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I23" s="5" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>2000033</v>
       </c>
@@ -2019,8 +2189,11 @@
       <c r="H24" s="5">
         <v>25</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I24" s="5" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>2000034</v>
       </c>
@@ -2046,8 +2219,11 @@
       <c r="H25" s="5">
         <v>25</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I25" s="5" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>2000038</v>
       </c>
@@ -2073,8 +2249,11 @@
       <c r="H26" s="5">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I26" s="5" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>2000039</v>
       </c>
@@ -2100,8 +2279,11 @@
       <c r="H27" s="5">
         <v>25</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I27" s="5" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>2000040</v>
       </c>
@@ -2127,8 +2309,11 @@
       <c r="H28" s="5">
         <v>89</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I28" s="5" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>2000042</v>
       </c>
@@ -2154,8 +2339,11 @@
       <c r="H29" s="5">
         <v>29</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I29" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>2000045</v>
       </c>
@@ -2181,8 +2369,11 @@
       <c r="H30" s="5">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I30" s="5" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>2000046</v>
       </c>
@@ -2208,8 +2399,11 @@
       <c r="H31" s="5">
         <v>29</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I31" s="5" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>2000050</v>
       </c>
@@ -2233,8 +2427,11 @@
         <v>38</v>
       </c>
       <c r="H32" s="5"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I32" s="5" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>2000053</v>
       </c>
@@ -2260,8 +2457,11 @@
       <c r="H33" s="5">
         <v>29</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I33" s="5" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>2000054</v>
       </c>
@@ -2287,8 +2487,11 @@
       <c r="H34" s="5">
         <v>29</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I34" s="5" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>2000055</v>
       </c>
@@ -2314,8 +2517,11 @@
       <c r="H35" s="5">
         <v>29</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I35" s="5" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>2000056</v>
       </c>
@@ -2341,8 +2547,11 @@
       <c r="H36" s="5">
         <v>29</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I36" s="5" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>2000057</v>
       </c>
@@ -2368,8 +2577,11 @@
       <c r="H37" s="5">
         <v>29</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I37" s="5" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>2000058</v>
       </c>
@@ -2395,8 +2607,11 @@
       <c r="H38" s="5">
         <v>29</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I38" s="5" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <v>2000059</v>
       </c>
@@ -2422,8 +2637,11 @@
       <c r="H39" s="5">
         <v>29</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I39" s="5" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>2000060</v>
       </c>
@@ -2449,8 +2667,11 @@
       <c r="H40" s="5">
         <v>29</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I40" s="5" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>2000061</v>
       </c>
@@ -2476,8 +2697,11 @@
       <c r="H41" s="5">
         <v>29</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I41" s="5" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <v>2000062</v>
       </c>
@@ -2503,8 +2727,11 @@
       <c r="H42" s="5">
         <v>29</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I42" s="5" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
         <v>2000063</v>
       </c>
@@ -2530,8 +2757,11 @@
       <c r="H43" s="5">
         <v>29</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I43" s="5" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <v>2000065</v>
       </c>
@@ -2557,8 +2787,11 @@
       <c r="H44" s="5">
         <v>29</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I44" s="5" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <v>2000066</v>
       </c>
@@ -2584,8 +2817,11 @@
       <c r="H45" s="5">
         <v>29</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I45" s="5" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
         <v>2000067</v>
       </c>
@@ -2611,8 +2847,11 @@
       <c r="H46" s="5">
         <v>29</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I46" s="5" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
         <v>2000068</v>
       </c>
@@ -2638,8 +2877,11 @@
       <c r="H47" s="5">
         <v>29</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I47" s="5" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
         <v>2000069</v>
       </c>
@@ -2665,8 +2907,11 @@
       <c r="H48" s="5">
         <v>29</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I48" s="5" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
         <v>2000070</v>
       </c>
@@ -2692,8 +2937,11 @@
       <c r="H49" s="5">
         <v>29</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I49" s="5" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
         <v>2000071</v>
       </c>
@@ -2719,8 +2967,11 @@
       <c r="H50" s="5">
         <v>29</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I50" s="5" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
         <v>2000073</v>
       </c>
@@ -2746,8 +2997,11 @@
       <c r="H51" s="5">
         <v>29</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I51" s="5" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
         <v>2000074</v>
       </c>
@@ -2773,8 +3027,11 @@
       <c r="H52" s="5">
         <v>29</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I52" s="5" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
         <v>2000081</v>
       </c>
@@ -2800,8 +3057,11 @@
       <c r="H53" s="5">
         <v>29</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I53" s="5" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
         <v>2000082</v>
       </c>
@@ -2827,8 +3087,11 @@
       <c r="H54" s="5">
         <v>29</v>
       </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I54" s="5" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
         <v>2000084</v>
       </c>
@@ -2854,8 +3117,11 @@
       <c r="H55" s="5">
         <v>29</v>
       </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I55" s="5" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
         <v>2000085</v>
       </c>
@@ -2881,8 +3147,11 @@
       <c r="H56" s="5">
         <v>29</v>
       </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I56" s="5" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
         <v>2000086</v>
       </c>
@@ -2908,8 +3177,11 @@
       <c r="H57" s="5">
         <v>29</v>
       </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I57" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
         <v>2000087</v>
       </c>
@@ -2935,8 +3207,11 @@
       <c r="H58" s="5">
         <v>29</v>
       </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I58" s="5" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
         <v>2000088</v>
       </c>
@@ -2962,8 +3237,11 @@
       <c r="H59" s="5">
         <v>29</v>
       </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I59" s="5" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
         <v>2000091</v>
       </c>
@@ -2989,8 +3267,11 @@
       <c r="H60" s="5">
         <v>29</v>
       </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I60" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="4">
         <v>2000093</v>
       </c>
@@ -3016,8 +3297,11 @@
       <c r="H61" s="5">
         <v>29</v>
       </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I61" s="5" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="4">
         <v>2000095</v>
       </c>
@@ -3043,8 +3327,11 @@
       <c r="H62" s="5">
         <v>89</v>
       </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I62" s="5" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="4">
         <v>2000096</v>
       </c>
@@ -3070,8 +3357,11 @@
       <c r="H63" s="5">
         <v>89</v>
       </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I63" s="5" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="4">
         <v>2000097</v>
       </c>
@@ -3097,8 +3387,11 @@
       <c r="H64" s="5">
         <v>25</v>
       </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I64" s="5" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="4">
         <v>2000098</v>
       </c>
@@ -3124,8 +3417,11 @@
       <c r="H65" s="5">
         <v>29</v>
       </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I65" s="5" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="4">
         <v>2000100</v>
       </c>
@@ -3151,8 +3447,11 @@
       <c r="H66" s="5">
         <v>29</v>
       </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I66" s="5" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="4">
         <v>2000101</v>
       </c>
@@ -3178,8 +3477,11 @@
       <c r="H67" s="5">
         <v>29</v>
       </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I67" s="5" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="4">
         <v>2000103</v>
       </c>
@@ -3205,8 +3507,11 @@
       <c r="H68" s="5">
         <v>29</v>
       </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I68" s="5" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="4">
         <v>2000104</v>
       </c>
@@ -3232,8 +3537,11 @@
       <c r="H69" s="5">
         <v>29</v>
       </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I69" s="5" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="4">
         <v>2000105</v>
       </c>
@@ -3259,8 +3567,11 @@
       <c r="H70" s="5">
         <v>29</v>
       </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I70" s="5" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="4">
         <v>2000106</v>
       </c>
@@ -3286,8 +3597,11 @@
       <c r="H71" s="5">
         <v>29</v>
       </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I71" s="5" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="4">
         <v>2000109</v>
       </c>
@@ -3313,8 +3627,11 @@
       <c r="H72" s="5">
         <v>29</v>
       </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I72" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="4">
         <v>2000111</v>
       </c>
@@ -3340,8 +3657,11 @@
       <c r="H73" s="5">
         <v>29</v>
       </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I73" s="5" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="4">
         <v>2000112</v>
       </c>
@@ -3365,8 +3685,11 @@
         <v>100</v>
       </c>
       <c r="H74" s="5"/>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I74" s="5" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="4">
         <v>2000113</v>
       </c>
@@ -3392,8 +3715,11 @@
       <c r="H75" s="5">
         <v>29</v>
       </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I75" s="5" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="4">
         <v>2000116</v>
       </c>
@@ -3419,8 +3745,11 @@
       <c r="H76" s="5">
         <v>29</v>
       </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I76" s="5" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="4">
         <v>2000117</v>
       </c>
@@ -3446,8 +3775,11 @@
       <c r="H77" s="5">
         <v>29</v>
       </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I77" s="5" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" s="4">
         <v>2000118</v>
       </c>
@@ -3473,8 +3805,11 @@
       <c r="H78" s="5">
         <v>29</v>
       </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I78" s="5" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" s="4">
         <v>2000120</v>
       </c>
@@ -3498,8 +3833,11 @@
         <v>109</v>
       </c>
       <c r="H79" s="5"/>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I79" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" s="4">
         <v>2000121</v>
       </c>
@@ -3523,8 +3861,11 @@
         <v>109</v>
       </c>
       <c r="H80" s="5"/>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I80" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" s="4">
         <v>2000122</v>
       </c>
@@ -3548,8 +3889,11 @@
         <v>73</v>
       </c>
       <c r="H81" s="5"/>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I81" s="5" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" s="4">
         <v>2000123</v>
       </c>
@@ -3573,8 +3917,11 @@
         <v>82</v>
       </c>
       <c r="H82" s="5"/>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I82" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" s="4">
         <v>2000124</v>
       </c>
@@ -3600,8 +3947,11 @@
       <c r="H83" s="5">
         <v>25</v>
       </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I83" s="5" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" s="4">
         <v>2000125</v>
       </c>
@@ -3627,8 +3977,11 @@
       <c r="H84" s="5">
         <v>29</v>
       </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I84" s="5" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" s="4">
         <v>2000156</v>
       </c>
@@ -3652,8 +4005,11 @@
         <v>106</v>
       </c>
       <c r="H85" s="5"/>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I85" s="5" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" s="4">
         <v>2000160</v>
       </c>
@@ -3679,8 +4035,11 @@
       <c r="H86" s="5">
         <v>29</v>
       </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I86" s="5" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" s="4">
         <v>2000164</v>
       </c>
@@ -3704,8 +4063,11 @@
         <v>38</v>
       </c>
       <c r="H87" s="5"/>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I87" s="5" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" s="4">
         <v>2000165</v>
       </c>
@@ -3729,8 +4091,11 @@
         <v>41</v>
       </c>
       <c r="H88" s="5"/>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I88" s="5" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" s="4">
         <v>2000166</v>
       </c>
@@ -3756,8 +4121,11 @@
       <c r="H89" s="5">
         <v>29</v>
       </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I89" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" s="4">
         <v>2000167</v>
       </c>
@@ -3783,8 +4151,11 @@
       <c r="H90" s="5">
         <v>29</v>
       </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I90" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" s="4">
         <v>2000169</v>
       </c>
@@ -3810,8 +4181,11 @@
       <c r="H91" s="5">
         <v>29</v>
       </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I91" s="5" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" s="4">
         <v>2000171</v>
       </c>
@@ -3837,8 +4211,11 @@
       <c r="H92" s="5">
         <v>29</v>
       </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I92" s="5" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" s="4">
         <v>2000172</v>
       </c>
@@ -3864,8 +4241,11 @@
       <c r="H93" s="5">
         <v>89</v>
       </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I93" s="5" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" s="4">
         <v>2000179</v>
       </c>
@@ -3891,8 +4271,11 @@
       <c r="H94" s="5">
         <v>89</v>
       </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I94" s="5" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" s="4">
         <v>2000185</v>
       </c>
@@ -3918,8 +4301,11 @@
       <c r="H95" s="5">
         <v>89</v>
       </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I95" s="5" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" s="4">
         <v>2000186</v>
       </c>
@@ -3945,8 +4331,11 @@
       <c r="H96" s="5">
         <v>29</v>
       </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I96" s="5" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" s="4">
         <v>2000188</v>
       </c>
@@ -3972,8 +4361,11 @@
       <c r="H97" s="5">
         <v>29</v>
       </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I97" s="5" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" s="4">
         <v>2000189</v>
       </c>
@@ -3999,8 +4391,11 @@
       <c r="H98" s="5">
         <v>29</v>
       </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I98" s="5" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" s="4">
         <v>2000190</v>
       </c>
@@ -4026,8 +4421,11 @@
       <c r="H99" s="5">
         <v>29</v>
       </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I99" s="5" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" s="4">
         <v>2000205</v>
       </c>
@@ -4051,8 +4449,11 @@
         <v>38</v>
       </c>
       <c r="H100" s="5"/>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I100" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" s="4">
         <v>2000210</v>
       </c>
@@ -4078,8 +4479,11 @@
       <c r="H101" s="5">
         <v>29</v>
       </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I101" s="5" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" s="4">
         <v>2000211</v>
       </c>
@@ -4105,8 +4509,11 @@
       <c r="H102" s="5">
         <v>29</v>
       </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I102" s="5" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" s="4">
         <v>2000212</v>
       </c>
@@ -4132,8 +4539,11 @@
       <c r="H103" s="5">
         <v>29</v>
       </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I103" s="5" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" s="4">
         <v>2000213</v>
       </c>
@@ -4159,8 +4569,11 @@
       <c r="H104" s="5">
         <v>29</v>
       </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I104" s="5" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" s="4">
         <v>2000214</v>
       </c>
@@ -4184,8 +4597,11 @@
         <v>28</v>
       </c>
       <c r="H105" s="5"/>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I105" s="5" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" s="4">
         <v>2000215</v>
       </c>
@@ -4209,8 +4625,11 @@
         <v>13</v>
       </c>
       <c r="H106" s="5"/>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I106" s="5" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" s="4">
         <v>2000216</v>
       </c>
@@ -4234,8 +4653,11 @@
         <v>28</v>
       </c>
       <c r="H107" s="5"/>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I107" s="5" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" s="4">
         <v>2000217</v>
       </c>
@@ -4259,8 +4681,11 @@
         <v>87</v>
       </c>
       <c r="H108" s="5"/>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I108" s="5" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" s="4">
         <v>2000218</v>
       </c>
@@ -4284,8 +4709,11 @@
         <v>41</v>
       </c>
       <c r="H109" s="5"/>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I109" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" s="4">
         <v>2000219</v>
       </c>
@@ -4309,8 +4737,11 @@
         <v>41</v>
       </c>
       <c r="H110" s="5"/>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I110" s="5" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" s="4">
         <v>2000223</v>
       </c>
@@ -4334,8 +4765,11 @@
         <v>28</v>
       </c>
       <c r="H111" s="5"/>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I111" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" s="4">
         <v>2000224</v>
       </c>
@@ -4359,8 +4793,11 @@
         <v>90</v>
       </c>
       <c r="H112" s="5"/>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I112" s="5" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" s="4">
         <v>2000226</v>
       </c>
@@ -4384,8 +4821,11 @@
         <v>41</v>
       </c>
       <c r="H113" s="5"/>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I113" s="5" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" s="4">
         <v>2000227</v>
       </c>
@@ -4411,8 +4851,11 @@
       <c r="H114" s="5">
         <v>29</v>
       </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I114" s="5" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" s="4">
         <v>2000271</v>
       </c>
@@ -4436,8 +4879,11 @@
         <v>109</v>
       </c>
       <c r="H115" s="5"/>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I115" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" s="4">
         <v>2000272</v>
       </c>
@@ -4461,8 +4907,11 @@
         <v>38</v>
       </c>
       <c r="H116" s="5"/>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I116" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" s="4">
         <v>2000276</v>
       </c>
@@ -4486,8 +4935,11 @@
         <v>41</v>
       </c>
       <c r="H117" s="5"/>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I117" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" s="4">
         <v>2000278</v>
       </c>
@@ -4513,8 +4965,11 @@
       <c r="H118" s="5">
         <v>29</v>
       </c>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I118" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" s="4">
         <v>2000279</v>
       </c>
@@ -4540,8 +4995,11 @@
       <c r="H119" s="5">
         <v>29</v>
       </c>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I119" s="5" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" s="4">
         <v>2000282</v>
       </c>
@@ -4567,8 +5025,11 @@
       <c r="H120" s="5">
         <v>29</v>
       </c>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I120" s="5" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" s="4">
         <v>2000283</v>
       </c>
@@ -4592,8 +5053,11 @@
         <v>155</v>
       </c>
       <c r="H121" s="5"/>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I121" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" s="4">
         <v>2000285</v>
       </c>
@@ -4617,8 +5081,11 @@
         <v>76</v>
       </c>
       <c r="H122" s="5"/>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I122" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" s="4">
         <v>2000286</v>
       </c>
@@ -4642,8 +5109,11 @@
         <v>13</v>
       </c>
       <c r="H123" s="5"/>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I123" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" s="4">
         <v>2000289</v>
       </c>
@@ -4669,8 +5139,11 @@
       <c r="H124" s="5">
         <v>29</v>
       </c>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I124" s="5" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" s="4">
         <v>2000291</v>
       </c>
@@ -4694,8 +5167,11 @@
         <v>41</v>
       </c>
       <c r="H125" s="5"/>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I125" s="5" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" s="4">
         <v>2000292</v>
       </c>
@@ -4719,8 +5195,11 @@
         <v>38</v>
       </c>
       <c r="H126" s="5"/>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I126" s="5" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" s="4">
         <v>2000293</v>
       </c>
@@ -4744,8 +5223,11 @@
         <v>41</v>
       </c>
       <c r="H127" s="5"/>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I127" s="5" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" s="4">
         <v>2000296</v>
       </c>
@@ -4769,8 +5251,11 @@
         <v>41</v>
       </c>
       <c r="H128" s="5"/>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I128" s="5" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" s="4">
         <v>2000300</v>
       </c>
@@ -4796,8 +5281,11 @@
       <c r="H129" s="5">
         <v>25</v>
       </c>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I129" s="5" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" s="4">
         <v>2000301</v>
       </c>
@@ -4823,8 +5311,11 @@
       <c r="H130" s="5">
         <v>29</v>
       </c>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I130" s="5" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" s="4">
         <v>2000303</v>
       </c>
@@ -4848,8 +5339,11 @@
         <v>166</v>
       </c>
       <c r="H131" s="5"/>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I131" s="5" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132" s="4">
         <v>2000309</v>
       </c>
@@ -4873,8 +5367,11 @@
         <v>73</v>
       </c>
       <c r="H132" s="5"/>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I132" s="5" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" s="4">
         <v>2000310</v>
       </c>
@@ -4898,8 +5395,11 @@
         <v>86</v>
       </c>
       <c r="H133" s="5"/>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I133" s="5" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" s="4">
         <v>2000311</v>
       </c>
@@ -4923,8 +5423,11 @@
         <v>86</v>
       </c>
       <c r="H134" s="5"/>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I134" s="5" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135" s="4">
         <v>2000312</v>
       </c>
@@ -4948,8 +5451,11 @@
         <v>86</v>
       </c>
       <c r="H135" s="5"/>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I135" s="5" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" s="4">
         <v>2000304</v>
       </c>
@@ -4975,8 +5481,11 @@
       <c r="H136" s="5">
         <v>29</v>
       </c>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I136" s="5" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" s="4">
         <v>2000313</v>
       </c>
@@ -5002,8 +5511,11 @@
       <c r="H137" s="5">
         <v>29</v>
       </c>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I137" s="5" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" s="4">
         <v>2000314</v>
       </c>
@@ -5029,8 +5541,11 @@
       <c r="H138" s="5">
         <v>29</v>
       </c>
-    </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I138" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" s="4">
         <v>2000316</v>
       </c>
@@ -5054,8 +5569,11 @@
         <v>37</v>
       </c>
       <c r="H139" s="5"/>
-    </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I139" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" s="4">
         <v>2000322</v>
       </c>
@@ -5079,8 +5597,11 @@
         <v>37</v>
       </c>
       <c r="H140" s="5"/>
-    </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I140" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" s="4">
         <v>2000324</v>
       </c>
@@ -5104,8 +5625,11 @@
         <v>41</v>
       </c>
       <c r="H141" s="5"/>
-    </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I141" s="5" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" s="4">
         <v>2000325</v>
       </c>
@@ -5129,8 +5653,11 @@
         <v>37</v>
       </c>
       <c r="H142" s="5"/>
-    </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I142" s="5" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143" s="4">
         <v>2000326</v>
       </c>
@@ -5154,8 +5681,11 @@
         <v>41</v>
       </c>
       <c r="H143" s="5"/>
-    </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I143" s="5" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144" s="4">
         <v>2000327</v>
       </c>
@@ -5179,8 +5709,11 @@
         <v>106</v>
       </c>
       <c r="H144" s="5"/>
-    </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I144" s="5" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" s="4">
         <v>2000329</v>
       </c>
@@ -5204,8 +5737,11 @@
         <v>38</v>
       </c>
       <c r="H145" s="5"/>
-    </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I145" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" s="4">
         <v>2000330</v>
       </c>
@@ -5229,8 +5765,11 @@
         <v>37</v>
       </c>
       <c r="H146" s="5"/>
-    </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I146" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" s="4">
         <v>2000331</v>
       </c>
@@ -5254,8 +5793,11 @@
         <v>41</v>
       </c>
       <c r="H147" s="5"/>
-    </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I147" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" s="4">
         <v>2000333</v>
       </c>
@@ -5281,8 +5823,11 @@
       <c r="H148" s="5">
         <v>29</v>
       </c>
-    </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I148" s="5" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" s="4">
         <v>2000334</v>
       </c>
@@ -5306,8 +5851,11 @@
         <v>37</v>
       </c>
       <c r="H149" s="5"/>
-    </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I149" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" s="4">
         <v>2000335</v>
       </c>
@@ -5333,8 +5881,11 @@
       <c r="H150" s="5">
         <v>44</v>
       </c>
-    </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I150" s="5" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" s="4">
         <v>2000336</v>
       </c>
@@ -5360,8 +5911,11 @@
       <c r="H151" s="5">
         <v>44</v>
       </c>
-    </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I151" s="5" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152" s="4">
         <v>2000338</v>
       </c>
@@ -5387,8 +5941,11 @@
       <c r="H152" s="5">
         <v>44</v>
       </c>
-    </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I152" s="5" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153" s="4">
         <v>2000339</v>
       </c>
@@ -5414,8 +5971,11 @@
       <c r="H153" s="5">
         <v>44</v>
       </c>
-    </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I153" s="5" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154" s="4">
         <v>2000340</v>
       </c>
@@ -5441,8 +6001,11 @@
       <c r="H154" s="5">
         <v>44</v>
       </c>
-    </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I154" s="5" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155" s="4">
         <v>2000341</v>
       </c>
@@ -5468,8 +6031,11 @@
       <c r="H155" s="5">
         <v>44</v>
       </c>
-    </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I155" s="5" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156" s="4">
         <v>2000342</v>
       </c>
@@ -5495,8 +6061,11 @@
       <c r="H156" s="5">
         <v>44</v>
       </c>
-    </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I156" s="5" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157" s="4">
         <v>2000343</v>
       </c>
@@ -5522,8 +6091,11 @@
       <c r="H157" s="5">
         <v>44</v>
       </c>
-    </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I157" s="5" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158" s="4">
         <v>2000344</v>
       </c>
@@ -5549,8 +6121,11 @@
       <c r="H158" s="5">
         <v>44</v>
       </c>
-    </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I158" s="5" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159" s="4">
         <v>2000345</v>
       </c>
@@ -5576,8 +6151,11 @@
       <c r="H159" s="5">
         <v>44</v>
       </c>
-    </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I159" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160" s="4">
         <v>2000346</v>
       </c>
@@ -5603,8 +6181,11 @@
       <c r="H160" s="5">
         <v>44</v>
       </c>
-    </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I160" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161" s="4">
         <v>2000347</v>
       </c>
@@ -5630,8 +6211,11 @@
       <c r="H161" s="5">
         <v>44</v>
       </c>
-    </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I161" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162" s="4">
         <v>2000348</v>
       </c>
@@ -5655,8 +6239,11 @@
         <v>166</v>
       </c>
       <c r="H162" s="5"/>
-    </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I162" s="5" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163" s="4">
         <v>2000350</v>
       </c>
@@ -5680,8 +6267,11 @@
         <v>200</v>
       </c>
       <c r="H163" s="5"/>
-    </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I163" s="5" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164" s="4">
         <v>2000351</v>
       </c>
@@ -5705,8 +6295,11 @@
         <v>28</v>
       </c>
       <c r="H164" s="5"/>
-    </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I164" s="5" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165" s="4">
         <v>2000354</v>
       </c>
@@ -5730,8 +6323,11 @@
         <v>37</v>
       </c>
       <c r="H165" s="5"/>
-    </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I165" s="5" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166" s="4">
         <v>2000501</v>
       </c>
@@ -5755,8 +6351,11 @@
         <v>41</v>
       </c>
       <c r="H166" s="5"/>
-    </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I166" s="5" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167" s="4">
         <v>2000502</v>
       </c>
@@ -5780,8 +6379,11 @@
         <v>28</v>
       </c>
       <c r="H167" s="5"/>
-    </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I167" s="5" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168" s="4">
         <v>2000503</v>
       </c>
@@ -5805,8 +6407,11 @@
         <v>37</v>
       </c>
       <c r="H168" s="5"/>
-    </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I168" s="5" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169" s="4">
         <v>2000505</v>
       </c>
@@ -5830,8 +6435,11 @@
         <v>200</v>
       </c>
       <c r="H169" s="5"/>
-    </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I169" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170" s="4">
         <v>2000506</v>
       </c>
@@ -5857,8 +6465,11 @@
       <c r="H170" s="5">
         <v>25</v>
       </c>
-    </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I170" s="5" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A171" s="4">
         <v>2000509</v>
       </c>
@@ -5884,8 +6495,11 @@
       <c r="H171" s="5">
         <v>25</v>
       </c>
-    </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I171" s="5" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172" s="4">
         <v>2000510</v>
       </c>
@@ -5909,8 +6523,11 @@
         <v>37</v>
       </c>
       <c r="H172" s="5"/>
-    </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I172" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173" s="4">
         <v>2000511</v>
       </c>
@@ -5936,8 +6553,11 @@
       <c r="H173" s="5">
         <v>29</v>
       </c>
-    </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I173" s="5" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174" s="4">
         <v>2000513</v>
       </c>
@@ -5963,8 +6583,11 @@
       <c r="H174" s="5">
         <v>29</v>
       </c>
-    </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I174" s="5" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175" s="4">
         <v>2000514</v>
       </c>
@@ -5990,8 +6613,11 @@
       <c r="H175" s="5">
         <v>29</v>
       </c>
-    </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I175" s="5" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176" s="4">
         <v>2000515</v>
       </c>
@@ -6017,8 +6643,11 @@
       <c r="H176" s="5">
         <v>29</v>
       </c>
-    </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I176" s="5" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A177" s="4">
         <v>2000516</v>
       </c>
@@ -6044,8 +6673,11 @@
       <c r="H177" s="5">
         <v>44</v>
       </c>
-    </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I177" s="5" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A178" s="4">
         <v>2000517</v>
       </c>
@@ -6071,8 +6703,11 @@
       <c r="H178" s="5">
         <v>44</v>
       </c>
-    </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I178" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A179" s="4">
         <v>2000518</v>
       </c>
@@ -6098,8 +6733,11 @@
       <c r="H179" s="5">
         <v>44</v>
       </c>
-    </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I179" s="5" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A180" s="4">
         <v>2000519</v>
       </c>
@@ -6125,8 +6763,11 @@
       <c r="H180" s="5">
         <v>44</v>
       </c>
-    </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I180" s="5" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A181" s="4">
         <v>2000520</v>
       </c>
@@ -6150,8 +6791,11 @@
         <v>41</v>
       </c>
       <c r="H181" s="5"/>
-    </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I181" s="5" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A182" s="4">
         <v>2000524</v>
       </c>
@@ -6175,8 +6819,11 @@
         <v>86</v>
       </c>
       <c r="H182" s="5"/>
-    </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I182" s="5" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A183" s="4">
         <v>2000525</v>
       </c>
@@ -6200,8 +6847,11 @@
         <v>86</v>
       </c>
       <c r="H183" s="5"/>
-    </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I183" s="5" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A184" s="4">
         <v>2000527</v>
       </c>
@@ -6225,8 +6875,11 @@
         <v>37</v>
       </c>
       <c r="H184" s="5"/>
-    </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I184" s="5" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A185" s="4">
         <v>2000531</v>
       </c>
@@ -6250,8 +6903,11 @@
         <v>37</v>
       </c>
       <c r="H185" s="5"/>
-    </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I185" s="5" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A186" s="4">
         <v>2000532</v>
       </c>
@@ -6275,8 +6931,11 @@
         <v>37</v>
       </c>
       <c r="H186" s="5"/>
-    </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I186" s="5" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A187" s="4">
         <v>2000537</v>
       </c>
@@ -6300,8 +6959,11 @@
         <v>37</v>
       </c>
       <c r="H187" s="5"/>
-    </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I187" s="5" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A188" s="4">
         <v>2000538</v>
       </c>
@@ -6327,8 +6989,11 @@
       <c r="H188" s="5">
         <v>29</v>
       </c>
-    </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I188" s="5" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A189" s="4">
         <v>2000544</v>
       </c>
@@ -6354,8 +7019,11 @@
       <c r="H189" s="5">
         <v>29</v>
       </c>
-    </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I189" s="5" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A190" s="4">
         <v>2000545</v>
       </c>
@@ -6379,8 +7047,11 @@
         <v>37</v>
       </c>
       <c r="H190" s="5"/>
-    </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I190" s="5" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A191" s="4">
         <v>2000546</v>
       </c>
@@ -6404,8 +7075,11 @@
         <v>37</v>
       </c>
       <c r="H191" s="5"/>
-    </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I191" s="5" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A192" s="4">
         <v>2000547</v>
       </c>
@@ -6429,8 +7103,11 @@
         <v>37</v>
       </c>
       <c r="H192" s="5"/>
-    </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I192" s="5" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A193" s="4">
         <v>2000548</v>
       </c>
@@ -6454,8 +7131,11 @@
         <v>37</v>
       </c>
       <c r="H193" s="5"/>
-    </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I193" s="5" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A194" s="4">
         <v>2000549</v>
       </c>
@@ -6479,8 +7159,11 @@
         <v>37</v>
       </c>
       <c r="H194" s="5"/>
-    </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I194" s="5" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A195" s="4">
         <v>2000551</v>
       </c>
@@ -6504,8 +7187,11 @@
         <v>37</v>
       </c>
       <c r="H195" s="5"/>
-    </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I195" s="5" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A196" s="4">
         <v>2000552</v>
       </c>
@@ -6529,8 +7215,11 @@
         <v>37</v>
       </c>
       <c r="H196" s="5"/>
-    </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I196" s="5" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A197" s="4">
         <v>2000554</v>
       </c>
@@ -6556,8 +7245,11 @@
       <c r="H197" s="5">
         <v>29</v>
       </c>
-    </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I197" s="5" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A198" s="4">
         <v>2000558</v>
       </c>
@@ -6581,8 +7273,11 @@
         <v>13</v>
       </c>
       <c r="H198" s="5"/>
-    </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I198" s="5" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A199" s="4">
         <v>2000561</v>
       </c>
@@ -6606,8 +7301,11 @@
         <v>41</v>
       </c>
       <c r="H199" s="5"/>
-    </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I199" s="5" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A200" s="4">
         <v>2000562</v>
       </c>
@@ -6631,8 +7329,11 @@
         <v>37</v>
       </c>
       <c r="H200" s="5"/>
-    </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I200" s="5" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A201" s="4">
         <v>2000566</v>
       </c>
@@ -6656,8 +7357,11 @@
         <v>73</v>
       </c>
       <c r="H201" s="5"/>
-    </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I201" s="5" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A202" s="4">
         <v>2000568</v>
       </c>
@@ -6681,8 +7385,11 @@
         <v>28</v>
       </c>
       <c r="H202" s="5"/>
-    </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I202" s="5" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A203" s="4">
         <v>2000569</v>
       </c>
@@ -6706,8 +7413,11 @@
         <v>100</v>
       </c>
       <c r="H203" s="5"/>
-    </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I203" s="5" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A204" s="4">
         <v>2000570</v>
       </c>
@@ -6733,8 +7443,11 @@
       <c r="H204" s="5">
         <v>29</v>
       </c>
-    </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I204" s="5" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A205" s="4">
         <v>2000571</v>
       </c>
@@ -6758,8 +7471,11 @@
         <v>37</v>
       </c>
       <c r="H205" s="5"/>
-    </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I205" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A206" s="4">
         <v>2000573</v>
       </c>
@@ -6785,8 +7501,11 @@
       <c r="H206" s="5">
         <v>29</v>
       </c>
-    </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I206" s="5" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A207" s="4">
         <v>2000593</v>
       </c>
@@ -6812,8 +7531,11 @@
       <c r="H207" s="5">
         <v>29</v>
       </c>
-    </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I207" s="5" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A208" s="4">
         <v>2000602</v>
       </c>
@@ -6839,8 +7561,11 @@
       <c r="H208" s="5">
         <v>44</v>
       </c>
-    </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I208" s="5" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A209" s="4">
         <v>2000603</v>
       </c>
@@ -6866,8 +7591,11 @@
       <c r="H209" s="5">
         <v>44</v>
       </c>
-    </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I209" s="5" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A210" s="4">
         <v>2000604</v>
       </c>
@@ -6893,8 +7621,11 @@
       <c r="H210" s="5">
         <v>44</v>
       </c>
-    </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I210" s="5" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A211" s="4">
         <v>2000606</v>
       </c>
@@ -6920,8 +7651,11 @@
       <c r="H211" s="5">
         <v>89</v>
       </c>
-    </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I211" s="5" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A212" s="4">
         <v>2000607</v>
       </c>
@@ -6947,8 +7681,11 @@
       <c r="H212" s="5">
         <v>44</v>
       </c>
-    </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I212" s="5" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A213" s="4">
         <v>2000608</v>
       </c>
@@ -6974,8 +7711,11 @@
       <c r="H213" s="5">
         <v>44</v>
       </c>
-    </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I213" s="5" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A214" s="4">
         <v>2000609</v>
       </c>
@@ -7001,8 +7741,11 @@
       <c r="H214" s="5">
         <v>44</v>
       </c>
-    </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I214" s="5" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A215" s="4">
         <v>2100001</v>
       </c>
@@ -7026,8 +7769,11 @@
         <v>254</v>
       </c>
       <c r="H215" s="5"/>
-    </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I215" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A216" s="9">
         <v>2100002</v>
       </c>
@@ -7051,8 +7797,11 @@
         <v>254</v>
       </c>
       <c r="H216" s="5"/>
-    </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I216" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A217" s="9">
         <v>2000585</v>
       </c>
@@ -7078,8 +7827,11 @@
       <c r="H217" s="10">
         <v>29</v>
       </c>
-    </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I217" s="5" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A218" s="4">
         <v>2000612</v>
       </c>
@@ -7105,8 +7857,11 @@
       <c r="H218" s="5">
         <v>44</v>
       </c>
-    </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I218" s="5" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A219" s="9">
         <v>2000613</v>
       </c>
@@ -7132,8 +7887,11 @@
       <c r="H219" s="5">
         <v>44</v>
       </c>
-    </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I219" s="5" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A220" s="9">
         <v>2000627</v>
       </c>
@@ -7159,8 +7917,11 @@
       <c r="H220" s="10">
         <v>29</v>
       </c>
-    </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I220" s="5" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A221" s="9">
         <v>2000628</v>
       </c>
@@ -7186,8 +7947,11 @@
       <c r="H221" s="10">
         <v>25</v>
       </c>
-    </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I221" s="5" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A222" s="4">
         <v>2000624</v>
       </c>
@@ -7213,8 +7977,11 @@
       <c r="H222" s="5">
         <v>44</v>
       </c>
-    </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I222" s="5" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A223" s="9">
         <v>2000625</v>
       </c>
@@ -7240,8 +8007,11 @@
       <c r="H223" s="5">
         <v>44</v>
       </c>
-    </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I223" s="5" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A224" s="9">
         <v>2000634</v>
       </c>
@@ -7267,8 +8037,11 @@
       <c r="H224" s="10">
         <v>29</v>
       </c>
-    </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I224" s="5" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A225" s="9">
         <v>2000640</v>
       </c>
@@ -7294,8 +8067,11 @@
       <c r="H225" s="5">
         <v>44</v>
       </c>
-    </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I225" s="5" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A226" s="9">
         <v>2000201</v>
       </c>
@@ -7321,8 +8097,11 @@
       <c r="H226" s="10">
         <v>29</v>
       </c>
-    </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I226" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A227" s="9">
         <v>2000643</v>
       </c>
@@ -7348,8 +8127,11 @@
       <c r="H227" s="10">
         <v>29</v>
       </c>
-    </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I227" s="5" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A228" s="9">
         <v>2000647</v>
       </c>
@@ -7375,8 +8157,11 @@
       <c r="H228" s="5">
         <v>44</v>
       </c>
-    </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I228" s="5" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A229" s="9">
         <v>2000299</v>
       </c>
@@ -7402,8 +8187,11 @@
       <c r="H229" s="10">
         <v>29</v>
       </c>
-    </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I229" s="5" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A230" s="9">
         <v>2000146</v>
       </c>
@@ -7429,8 +8217,11 @@
       <c r="H230" s="10">
         <v>179</v>
       </c>
-    </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I230" s="5" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A231" s="9">
         <v>2000774</v>
       </c>
@@ -7456,8 +8247,11 @@
       <c r="H231" s="10">
         <v>29</v>
       </c>
-    </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I231" s="5" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A232" s="4">
         <v>2000811</v>
       </c>
@@ -7483,8 +8277,11 @@
       <c r="H232" s="5">
         <v>29</v>
       </c>
-    </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I232" s="5" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A233" s="9">
         <v>2000813</v>
       </c>
@@ -7510,8 +8307,11 @@
       <c r="H233" s="10">
         <v>109</v>
       </c>
-    </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I233" s="5" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A234" s="9">
         <v>2000814</v>
       </c>
@@ -7537,8 +8337,11 @@
       <c r="H234" s="10">
         <v>109</v>
       </c>
-    </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I234" s="5" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A235" s="9">
         <v>2000812</v>
       </c>
@@ -7564,8 +8367,11 @@
       <c r="H235" s="10">
         <v>109</v>
       </c>
-    </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I235" s="5" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A236" s="4">
         <v>2000816</v>
       </c>
@@ -7591,8 +8397,11 @@
       <c r="H236" s="10">
         <v>109</v>
       </c>
-    </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I236" s="5" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A237" s="4">
         <v>2000152</v>
       </c>
@@ -7618,28 +8427,32 @@
       <c r="H237" s="5">
         <v>179</v>
       </c>
+      <c r="I237" s="5" t="s">
+        <v>280</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:I237" xr:uid="{3FC66B54-ABAE-43C4-B99D-44CD06A1DB40}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="17b9212a-12f8-4529-9f8d-10a9bb8defb4" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="17b9212a-12f8-4529-9f8d-10a9bb8defb4" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7876,6 +8689,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E6EEF2A6-A3B5-4A81-B246-81C5F8D2A42D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{51A6E5DD-4266-47A2-9543-6E8E9CDC515D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -7888,14 +8709,6 @@
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E6EEF2A6-A3B5-4A81-B246-81C5F8D2A42D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Items.xlsx
+++ b/Items.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://grupomantiqueiracombr-my.sharepoint.com/personal/andrev_mantiqueirabrasil_com_br/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="43" documentId="8_{06AFBCFD-6C24-44F3-AB68-FFB4EC7D6B15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FB50DC6D-A44D-4802-8E97-C1C763BBDC63}"/>
+  <xr:revisionPtr revIDLastSave="75" documentId="8_{06AFBCFD-6C24-44F3-AB68-FFB4EC7D6B15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3C0E85F6-104F-4C55-B314-A4564476F573}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{B32C59C7-C42C-44D4-8F5D-8B010102F13D}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1186" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1189" uniqueCount="285">
   <si>
     <t>Item</t>
   </si>
@@ -872,54 +872,12 @@
     <t>EMBALADO</t>
   </si>
   <si>
-    <t xml:space="preserve">EXTRA GRANEL </t>
-  </si>
-  <si>
-    <t xml:space="preserve">EX VER GRANEL </t>
-  </si>
-  <si>
-    <t>CINTA GR</t>
-  </si>
-  <si>
     <t>EXPORTAÇÃO</t>
   </si>
   <si>
-    <t xml:space="preserve">GR GRANEL </t>
-  </si>
-  <si>
-    <t xml:space="preserve">GR GRANEL VERM </t>
-  </si>
-  <si>
-    <t>Granel</t>
-  </si>
-  <si>
-    <t>JB 30</t>
-  </si>
-  <si>
-    <t>JB 20</t>
-  </si>
-  <si>
     <t xml:space="preserve">BALDE </t>
   </si>
   <si>
-    <t xml:space="preserve">MD GRANEL </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MD GRANEL VER </t>
-  </si>
-  <si>
-    <t xml:space="preserve">P GRANEL </t>
-  </si>
-  <si>
-    <t>P GRANEL VER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JB 2 GEMA </t>
-  </si>
-  <si>
-    <t>CINTA MD</t>
-  </si>
-  <si>
     <t>LÍQUIDO</t>
   </si>
   <si>
@@ -929,13 +887,7 @@
     <t>KIT</t>
   </si>
   <si>
-    <t>SITIO VER</t>
-  </si>
-  <si>
     <t>OVO EM PÓ</t>
-  </si>
-  <si>
-    <t>LIQUIDO</t>
   </si>
   <si>
     <t>Industria</t>
@@ -1460,7 +1412,7 @@
   <dimension ref="A1:I237"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I179" sqref="I179"/>
+      <selection activeCell="I187" sqref="I187"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1502,7 +1454,7 @@
         <v>6</v>
       </c>
       <c r="I1" s="13" t="s">
-        <v>300</v>
+        <v>284</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -1712,7 +1664,7 @@
         <v>29</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>277</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -1862,7 +1814,7 @@
         <v>29</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>277</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -1950,7 +1902,7 @@
         <v>29</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>278</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -2160,7 +2112,7 @@
         <v>29</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>279</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -2310,7 +2262,7 @@
         <v>89</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
@@ -2428,7 +2380,7 @@
       </c>
       <c r="H32" s="5"/>
       <c r="I32" s="5" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
@@ -2488,7 +2440,7 @@
         <v>29</v>
       </c>
       <c r="I34" s="5" t="s">
-        <v>281</v>
+        <v>17</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
@@ -2518,7 +2470,7 @@
         <v>29</v>
       </c>
       <c r="I35" s="5" t="s">
-        <v>281</v>
+        <v>17</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
@@ -2788,7 +2740,7 @@
         <v>29</v>
       </c>
       <c r="I44" s="5" t="s">
-        <v>281</v>
+        <v>17</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
@@ -2848,7 +2800,7 @@
         <v>29</v>
       </c>
       <c r="I46" s="5" t="s">
-        <v>282</v>
+        <v>17</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
@@ -3118,7 +3070,7 @@
         <v>29</v>
       </c>
       <c r="I55" s="5" t="s">
-        <v>284</v>
+        <v>17</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
@@ -3148,7 +3100,7 @@
         <v>29</v>
       </c>
       <c r="I56" s="5" t="s">
-        <v>285</v>
+        <v>17</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
@@ -3328,7 +3280,7 @@
         <v>89</v>
       </c>
       <c r="I62" s="5" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
@@ -3358,7 +3310,7 @@
         <v>89</v>
       </c>
       <c r="I63" s="5" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
@@ -3418,7 +3370,7 @@
         <v>29</v>
       </c>
       <c r="I65" s="5" t="s">
-        <v>283</v>
+        <v>17</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
@@ -3508,7 +3460,7 @@
         <v>29</v>
       </c>
       <c r="I68" s="5" t="s">
-        <v>287</v>
+        <v>17</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
@@ -3658,7 +3610,7 @@
         <v>29</v>
       </c>
       <c r="I73" s="5" t="s">
-        <v>288</v>
+        <v>17</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
@@ -3686,7 +3638,7 @@
       </c>
       <c r="H74" s="5"/>
       <c r="I74" s="5" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
@@ -3746,7 +3698,7 @@
         <v>29</v>
       </c>
       <c r="I76" s="5" t="s">
-        <v>289</v>
+        <v>17</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
@@ -3776,7 +3728,7 @@
         <v>29</v>
       </c>
       <c r="I77" s="5" t="s">
-        <v>290</v>
+        <v>17</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
@@ -3978,7 +3930,7 @@
         <v>29</v>
       </c>
       <c r="I84" s="5" t="s">
-        <v>291</v>
+        <v>17</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
@@ -4121,8 +4073,8 @@
       <c r="H89" s="5">
         <v>29</v>
       </c>
-      <c r="I89" s="5" t="e">
-        <v>#N/A</v>
+      <c r="I89" s="5" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
@@ -4151,8 +4103,8 @@
       <c r="H90" s="5">
         <v>29</v>
       </c>
-      <c r="I90" s="5" t="e">
-        <v>#N/A</v>
+      <c r="I90" s="5" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
@@ -4182,7 +4134,7 @@
         <v>29</v>
       </c>
       <c r="I91" s="5" t="s">
-        <v>292</v>
+        <v>40</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
@@ -4242,7 +4194,7 @@
         <v>89</v>
       </c>
       <c r="I93" s="5" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
@@ -4272,7 +4224,7 @@
         <v>89</v>
       </c>
       <c r="I94" s="5" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
@@ -4302,7 +4254,7 @@
         <v>89</v>
       </c>
       <c r="I95" s="5" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
@@ -4332,7 +4284,7 @@
         <v>29</v>
       </c>
       <c r="I96" s="5" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
@@ -5396,7 +5348,7 @@
       </c>
       <c r="H133" s="5"/>
       <c r="I133" s="5" t="s">
-        <v>293</v>
+        <v>279</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.25">
@@ -5424,7 +5376,7 @@
       </c>
       <c r="H134" s="5"/>
       <c r="I134" s="5" t="s">
-        <v>293</v>
+        <v>279</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.25">
@@ -5452,7 +5404,7 @@
       </c>
       <c r="H135" s="5"/>
       <c r="I135" s="5" t="s">
-        <v>293</v>
+        <v>279</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.25">
@@ -5542,7 +5494,7 @@
         <v>29</v>
       </c>
       <c r="I138" s="5" t="s">
-        <v>294</v>
+        <v>280</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.25">
@@ -5570,7 +5522,7 @@
       </c>
       <c r="H139" s="5"/>
       <c r="I139" s="5" t="s">
-        <v>294</v>
+        <v>280</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.25">
@@ -5598,7 +5550,7 @@
       </c>
       <c r="H140" s="5"/>
       <c r="I140" s="5" t="s">
-        <v>294</v>
+        <v>280</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.25">
@@ -5626,7 +5578,7 @@
       </c>
       <c r="H141" s="5"/>
       <c r="I141" s="5" t="s">
-        <v>276</v>
+        <v>40</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.25">
@@ -5654,7 +5606,7 @@
       </c>
       <c r="H142" s="5"/>
       <c r="I142" s="5" t="s">
-        <v>295</v>
+        <v>281</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.25">
@@ -5682,7 +5634,7 @@
       </c>
       <c r="H143" s="5"/>
       <c r="I143" s="5" t="s">
-        <v>276</v>
+        <v>40</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.25">
@@ -5710,7 +5662,7 @@
       </c>
       <c r="H144" s="5"/>
       <c r="I144" s="5" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.25">
@@ -5766,7 +5718,7 @@
       </c>
       <c r="H146" s="5"/>
       <c r="I146" s="5" t="s">
-        <v>294</v>
+        <v>280</v>
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.25">
@@ -5852,7 +5804,7 @@
       </c>
       <c r="H149" s="5"/>
       <c r="I149" s="5" t="s">
-        <v>294</v>
+        <v>280</v>
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.25">
@@ -5942,7 +5894,7 @@
         <v>44</v>
       </c>
       <c r="I152" s="5" t="s">
-        <v>296</v>
+        <v>276</v>
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.25">
@@ -6211,8 +6163,8 @@
       <c r="H161" s="5">
         <v>44</v>
       </c>
-      <c r="I161" s="5" t="e">
-        <v>#N/A</v>
+      <c r="I161" s="5" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.25">
@@ -6296,7 +6248,7 @@
       </c>
       <c r="H164" s="5"/>
       <c r="I164" s="5" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.25">
@@ -6554,7 +6506,7 @@
         <v>29</v>
       </c>
       <c r="I173" s="5" t="s">
-        <v>276</v>
+        <v>40</v>
       </c>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.25">
@@ -6734,7 +6686,7 @@
         <v>44</v>
       </c>
       <c r="I179" s="5" t="s">
-        <v>279</v>
+        <v>40</v>
       </c>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.25">
@@ -6820,7 +6772,7 @@
       </c>
       <c r="H182" s="5"/>
       <c r="I182" s="5" t="s">
-        <v>297</v>
+        <v>282</v>
       </c>
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.25">
@@ -6848,7 +6800,7 @@
       </c>
       <c r="H183" s="5"/>
       <c r="I183" s="5" t="s">
-        <v>297</v>
+        <v>282</v>
       </c>
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.25">
@@ -6876,7 +6828,7 @@
       </c>
       <c r="H184" s="5"/>
       <c r="I184" s="5" t="s">
-        <v>298</v>
+        <v>279</v>
       </c>
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.25">
@@ -6904,7 +6856,7 @@
       </c>
       <c r="H185" s="5"/>
       <c r="I185" s="5" t="s">
-        <v>293</v>
+        <v>279</v>
       </c>
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.25">
@@ -6932,7 +6884,7 @@
       </c>
       <c r="H186" s="5"/>
       <c r="I186" s="5" t="s">
-        <v>283</v>
+        <v>17</v>
       </c>
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.25">
@@ -7048,7 +7000,7 @@
       </c>
       <c r="H190" s="5"/>
       <c r="I190" s="5" t="s">
-        <v>295</v>
+        <v>281</v>
       </c>
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.25">
@@ -7076,7 +7028,7 @@
       </c>
       <c r="H191" s="5"/>
       <c r="I191" s="5" t="s">
-        <v>295</v>
+        <v>281</v>
       </c>
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.25">
@@ -7104,7 +7056,7 @@
       </c>
       <c r="H192" s="5"/>
       <c r="I192" s="5" t="s">
-        <v>295</v>
+        <v>281</v>
       </c>
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.25">
@@ -7132,7 +7084,7 @@
       </c>
       <c r="H193" s="5"/>
       <c r="I193" s="5" t="s">
-        <v>295</v>
+        <v>281</v>
       </c>
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.25">
@@ -7160,7 +7112,7 @@
       </c>
       <c r="H194" s="5"/>
       <c r="I194" s="5" t="s">
-        <v>295</v>
+        <v>281</v>
       </c>
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.25">
@@ -7188,7 +7140,7 @@
       </c>
       <c r="H195" s="5"/>
       <c r="I195" s="5" t="s">
-        <v>295</v>
+        <v>281</v>
       </c>
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.25">
@@ -7216,7 +7168,7 @@
       </c>
       <c r="H196" s="5"/>
       <c r="I196" s="5" t="s">
-        <v>295</v>
+        <v>281</v>
       </c>
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.25">
@@ -7274,7 +7226,7 @@
       </c>
       <c r="H198" s="5"/>
       <c r="I198" s="5" t="s">
-        <v>283</v>
+        <v>17</v>
       </c>
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.25">
@@ -7302,7 +7254,7 @@
       </c>
       <c r="H199" s="5"/>
       <c r="I199" s="5" t="s">
-        <v>283</v>
+        <v>17</v>
       </c>
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.25">
@@ -7330,7 +7282,7 @@
       </c>
       <c r="H200" s="5"/>
       <c r="I200" s="5" t="s">
-        <v>295</v>
+        <v>281</v>
       </c>
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.25">
@@ -7358,7 +7310,7 @@
       </c>
       <c r="H201" s="5"/>
       <c r="I201" s="5" t="s">
-        <v>299</v>
+        <v>283</v>
       </c>
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.25">
@@ -7652,7 +7604,7 @@
         <v>89</v>
       </c>
       <c r="I211" s="5" t="s">
-        <v>277</v>
+        <v>17</v>
       </c>
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.25">
@@ -7828,7 +7780,7 @@
         <v>29</v>
       </c>
       <c r="I217" s="5" t="s">
-        <v>296</v>
+        <v>276</v>
       </c>
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.25">
@@ -7858,7 +7810,7 @@
         <v>44</v>
       </c>
       <c r="I218" s="5" t="s">
-        <v>277</v>
+        <v>17</v>
       </c>
     </row>
     <row r="219" spans="1:9" x14ac:dyDescent="0.25">
@@ -7888,7 +7840,7 @@
         <v>44</v>
       </c>
       <c r="I219" s="5" t="s">
-        <v>277</v>
+        <v>17</v>
       </c>
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.25">
@@ -8218,7 +8170,7 @@
         <v>179</v>
       </c>
       <c r="I230" s="5" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="231" spans="1:9" x14ac:dyDescent="0.25">
@@ -8308,7 +8260,7 @@
         <v>109</v>
       </c>
       <c r="I233" s="5" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="234" spans="1:9" x14ac:dyDescent="0.25">
@@ -8338,7 +8290,7 @@
         <v>109</v>
       </c>
       <c r="I234" s="5" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="235" spans="1:9" x14ac:dyDescent="0.25">
@@ -8368,7 +8320,7 @@
         <v>109</v>
       </c>
       <c r="I235" s="5" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="236" spans="1:9" x14ac:dyDescent="0.25">
@@ -8398,7 +8350,7 @@
         <v>109</v>
       </c>
       <c r="I236" s="5" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="237" spans="1:9" x14ac:dyDescent="0.25">
@@ -8428,7 +8380,7 @@
         <v>179</v>
       </c>
       <c r="I237" s="5" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
   </sheetData>
@@ -8448,14 +8400,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="17b9212a-12f8-4529-9f8d-10a9bb8defb4" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101003FBF49400AB40B439BDB4D3AA29F1550" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d639d79f167c3c5b1f0f36efd9e61717">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="17b9212a-12f8-4529-9f8d-10a9bb8defb4" xmlns:ns4="619f39a1-d152-43c5-a4dc-716551202ffa" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2791854f308068c708bec9277e7220b6" ns3:_="" ns4:_="">
     <xsd:import namespace="17b9212a-12f8-4529-9f8d-10a9bb8defb4"/>
@@ -8688,6 +8632,14 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="17b9212a-12f8-4529-9f8d-10a9bb8defb4" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E6EEF2A6-A3B5-4A81-B246-81C5F8D2A42D}">
   <ds:schemaRefs>
@@ -8697,23 +8649,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{51A6E5DD-4266-47A2-9543-6E8E9CDC515D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="17b9212a-12f8-4529-9f8d-10a9bb8defb4"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="619f39a1-d152-43c5-a4dc-716551202ffa"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5160A96E-B6D7-4E9C-9D31-580ADB9F7344}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8730,4 +8665,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{51A6E5DD-4266-47A2-9543-6E8E9CDC515D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="17b9212a-12f8-4529-9f8d-10a9bb8defb4"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="619f39a1-d152-43c5-a4dc-716551202ffa"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>